--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>a, use distinct or group by; b. (limit m, 1),  where m is the offset of the first row to return</t>
+  </si>
+  <si>
+    <t>Window Function, lag, lead</t>
+  </si>
+  <si>
+    <t>Delete Duplicates</t>
+  </si>
+  <si>
+    <t>Window function lag OR date_add(w1.RecordDate, interval 1 day)</t>
   </si>
 </sst>
 </file>
@@ -337,12 +346,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -357,9 +372,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,49 +391,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>313714</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66410</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8924925" y="419100"/>
-          <a:ext cx="4885714" cy="2123810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,11 +659,13 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="47.5703125" customWidth="1"/>
   </cols>
@@ -741,7 +716,7 @@
       <c r="A4">
         <v>177</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -772,7 +747,7 @@
       <c r="A6">
         <v>180</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
@@ -780,6 +755,9 @@
       </c>
       <c r="D6" t="s">
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,6 +787,9 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -856,7 +837,7 @@
       <c r="A12">
         <v>196</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="1">
@@ -870,7 +851,7 @@
       <c r="A13">
         <v>197</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="1">
@@ -878,13 +859,16 @@
       </c>
       <c r="D13" t="s">
         <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>262</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="1">
@@ -2017,6 +2001,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -331,13 +331,55 @@
   </si>
   <si>
     <t>Window function lag OR date_add(w1.RecordDate, interval 1 day)</t>
+  </si>
+  <si>
+    <t>Window function, datediff, with as</t>
+  </si>
+  <si>
+    <t>window function, case when</t>
+  </si>
+  <si>
+    <t>when to use having instead of where</t>
+  </si>
+  <si>
+    <t>window functions, frame, ROWS UNBOUNDED PRECEDING</t>
+  </si>
+  <si>
+    <t>Join, groupby, order by</t>
+  </si>
+  <si>
+    <t>window function , frame</t>
+  </si>
+  <si>
+    <t>window function, with as</t>
+  </si>
+  <si>
+    <t>window function and Join</t>
+  </si>
+  <si>
+    <t>window function lag and lead</t>
+  </si>
+  <si>
+    <t>List the Products Ordered in a Period    </t>
+  </si>
+  <si>
+    <t>Number of Transactions per Visit    </t>
+  </si>
+  <si>
+    <t>Movie Rating    </t>
+  </si>
+  <si>
+    <t>Students With Invalid Departments    New</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +387,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,10 +426,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,1350 +715,1499 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>175</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>0.56699999999999995</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>0.29599999999999999</v>
       </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4">
         <v>177</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>0.29199999999999998</v>
       </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
       <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>178</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>0.41399999999999998</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>180</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>0.36699999999999999</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
       <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>181</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>182</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>0.58699999999999997</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
       <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>183</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>184</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.33</v>
       </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>185</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>0.30499999999999999</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>196</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>0.371</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>197</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
       <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>262</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>0.28599999999999998</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>511</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>0.78400000000000003</v>
       </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>512</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>0.55200000000000005</v>
       </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>534</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>0.70899999999999996</v>
       </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>2182020</v>
+      </c>
+      <c r="B18">
         <v>550</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>2182020</v>
+      </c>
+      <c r="B19">
         <v>569</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>2182020</v>
+      </c>
+      <c r="B20">
         <v>570</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>2182020</v>
+      </c>
+      <c r="B21">
         <v>571</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>0.45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F21" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>2182020</v>
+      </c>
+      <c r="B22">
         <v>574</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>2182020</v>
+      </c>
+      <c r="B23">
         <v>577</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>0.63500000000000001</v>
       </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>2182020</v>
+      </c>
+      <c r="B24">
         <v>578</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>0.36299999999999999</v>
       </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>2182020</v>
+      </c>
+      <c r="B25">
         <v>579</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>0.35199999999999998</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>2182020</v>
+      </c>
+      <c r="B26">
         <v>580</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>2182020</v>
+      </c>
+      <c r="B27">
         <v>584</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>0.69599999999999995</v>
       </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>2182020</v>
+      </c>
+      <c r="B28">
         <v>585</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>2182020</v>
+      </c>
+      <c r="B29">
         <v>586</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>0.69699999999999995</v>
       </c>
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>2182020</v>
+      </c>
+      <c r="B30">
         <v>595</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>0.75800000000000001</v>
       </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>2182020</v>
+      </c>
+      <c r="B31">
         <v>596</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>0.371</v>
       </c>
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>2182020</v>
+      </c>
+      <c r="B32">
         <v>597</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>0.40600000000000003</v>
       </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>2182020</v>
+      </c>
+      <c r="B33">
         <v>601</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>0.39100000000000001</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>2182020</v>
+      </c>
+      <c r="B34">
         <v>602</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>0.48499999999999999</v>
       </c>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>2182020</v>
+      </c>
+      <c r="B35">
         <v>603</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>2182020</v>
+      </c>
+      <c r="B36">
         <v>607</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>0.60099999999999998</v>
       </c>
-      <c r="D36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>2182020</v>
+      </c>
+      <c r="B37">
         <v>608</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>0.622</v>
       </c>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>2182020</v>
+      </c>
+      <c r="B38" s="4">
         <v>610</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="5">
         <v>0.63300000000000001</v>
       </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E38" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B39">
         <v>612</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40">
         <v>613</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>0.752</v>
       </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41">
         <v>614</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>0.26400000000000001</v>
       </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42">
         <v>615</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>0.42</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B43">
         <v>618</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>0.47099999999999997</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B44">
         <v>619</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>0.40799999999999997</v>
       </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B45">
         <v>620</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>0.64500000000000002</v>
       </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B46">
         <v>626</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47">
         <v>627</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="1">
+      <c r="D47" s="1">
         <v>0.72399999999999998</v>
       </c>
-      <c r="D47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48">
         <v>1045</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="1">
+      <c r="D48" s="1">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
         <v>1050</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="1">
+      <c r="D49" s="1">
         <v>0.72199999999999998</v>
       </c>
-      <c r="D49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
         <v>1068</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="1">
+      <c r="D50" s="1">
         <v>0.85499999999999998</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
         <v>1069</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="1">
+      <c r="D51" s="1">
         <v>0.84299999999999997</v>
       </c>
-      <c r="D51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
         <v>1070</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="1">
+      <c r="D52" s="1">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
         <v>1075</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="1">
+      <c r="D53" s="1">
         <v>0.629</v>
       </c>
-      <c r="D53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="E53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
         <v>1076</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="1">
+      <c r="D54" s="1">
         <v>0.53600000000000003</v>
       </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
         <v>1077</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1">
+      <c r="D55" s="1">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
         <v>1082</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1">
+      <c r="D56" s="1">
         <v>0.71899999999999997</v>
       </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="E56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
         <v>1083</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="1">
+      <c r="D57" s="1">
         <v>0.52</v>
       </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
         <v>1084</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="1">
+      <c r="D58" s="1">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="E58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59">
         <v>1097</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="1">
+      <c r="D59" s="1">
         <v>0.53</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60">
         <v>1098</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="1">
+      <c r="D60" s="1">
         <v>0.42599999999999999</v>
       </c>
-      <c r="D60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61">
         <v>1107</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="1">
+      <c r="D61" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62">
         <v>1112</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="1">
+      <c r="D62" s="1">
         <v>0.65100000000000002</v>
       </c>
-      <c r="D62" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63">
         <v>1113</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="1">
+      <c r="D63" s="1">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="E63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64">
         <v>1126</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="1">
+      <c r="D64" s="1">
         <v>0.71399999999999997</v>
       </c>
-      <c r="D64" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65">
         <v>1127</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="1">
+      <c r="D65" s="1">
         <v>0.46300000000000002</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66">
         <v>1132</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="1">
+      <c r="D66" s="1">
         <v>0.34499999999999997</v>
       </c>
-      <c r="D66" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67">
         <v>1141</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="1">
+      <c r="D67" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="D67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="E67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68">
         <v>1142</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>69</v>
       </c>
-      <c r="C68" s="1">
+      <c r="D68" s="1">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E68" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69">
         <v>1148</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>70</v>
       </c>
-      <c r="C69" s="1">
+      <c r="D69" s="1">
         <v>0.745</v>
       </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70">
         <v>1149</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="1">
+      <c r="D70" s="1">
         <v>0.47699999999999998</v>
       </c>
-      <c r="D70" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71">
         <v>1158</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>72</v>
       </c>
-      <c r="C71" s="1">
+      <c r="D71" s="1">
         <v>0.56699999999999995</v>
       </c>
-      <c r="D71" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72">
         <v>1159</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="1">
+      <c r="D72" s="1">
         <v>0.499</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73">
         <v>1164</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>74</v>
       </c>
-      <c r="C73" s="1">
+      <c r="D73" s="1">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D73" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74">
         <v>1173</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>75</v>
       </c>
-      <c r="C74" s="1">
+      <c r="D74" s="1">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="E74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>1174</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>76</v>
       </c>
-      <c r="C75" s="1">
+      <c r="D75" s="1">
         <v>0.56899999999999995</v>
       </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>1179</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="1">
+      <c r="D76" s="1">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77">
         <v>1193</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="1">
+      <c r="D77" s="1">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78">
         <v>1194</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79">
         <v>1204</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80">
         <v>1205</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>81</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81">
         <v>1211</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="1">
+      <c r="D81" s="1">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D81" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="E81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82">
         <v>1212</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83">
         <v>1225</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="1">
+      <c r="D83" s="1">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84">
         <v>1241</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="1">
+      <c r="D84" s="1">
         <v>0.72099999999999997</v>
       </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85">
         <v>1251</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>86</v>
       </c>
-      <c r="C85" s="1">
+      <c r="D85" s="1">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86">
         <v>1264</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="1">
+      <c r="D86" s="1">
         <v>0.66100000000000003</v>
       </c>
-      <c r="D86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87">
         <v>1270</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>88</v>
       </c>
-      <c r="C87" s="1">
+      <c r="D87" s="1">
         <v>0.85399999999999998</v>
       </c>
-      <c r="D87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88">
         <v>1280</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>89</v>
       </c>
-      <c r="C88" s="1">
+      <c r="D88" s="1">
         <v>0.71499999999999997</v>
       </c>
-      <c r="D88" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89">
         <v>1285</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="1">
+      <c r="D89" s="1">
         <v>0.82599999999999996</v>
       </c>
-      <c r="D89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90">
         <v>1294</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>91</v>
       </c>
-      <c r="C90" s="1">
+      <c r="D90" s="1">
         <v>0.66700000000000004</v>
       </c>
-      <c r="D90" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E90" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91">
         <v>1303</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>92</v>
       </c>
-      <c r="C91" s="1">
+      <c r="D91" s="1">
         <v>0.89800000000000002</v>
       </c>
-      <c r="D91" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E91" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92">
         <v>1308</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>93</v>
       </c>
-      <c r="C92" s="1">
+      <c r="D92" s="1">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D92" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93">
         <v>1321</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>94</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
         <v>0.65500000000000003</v>
       </c>
-      <c r="D93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94">
         <v>1322</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>95</v>
       </c>
-      <c r="C94" s="1">
+      <c r="D94" s="1">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>1327</v>
+      </c>
+      <c r="C95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>1336</v>
+      </c>
+      <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>1341</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>1350</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E98" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -373,13 +373,55 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>SELECT from two tables</t>
+  </si>
+  <si>
+    <t>DATE_FORMAT(pay_date,'%Y-%m') ; AVG(amount) OVER(PARTITION BY LEFT(s.pay_date,7), e.department_id) AS avg_depart</t>
+  </si>
+  <si>
+    <t>window function, lag, lead, ifnull</t>
+  </si>
+  <si>
+    <t>update table set columnname = if ()</t>
+  </si>
+  <si>
+    <t>group by actor_id, director_id 
+having count(*) &gt;= 3;</t>
+  </si>
+  <si>
+    <r>
+      <t>two variables in where clause: where</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (product_id, year)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in (select product_id, min(year) from sales</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +434,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -426,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -435,6 +485,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1423,7 @@
       <c r="B39">
         <v>612</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D39" s="1">
@@ -1378,6 +1431,9 @@
       </c>
       <c r="E39" t="s">
         <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1412,7 +1468,7 @@
       <c r="B42">
         <v>615</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D42" s="1">
@@ -1420,6 +1476,9 @@
       </c>
       <c r="E42" t="s">
         <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1468,7 +1527,7 @@
       <c r="B46">
         <v>626</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="1">
@@ -1476,13 +1535,16 @@
       </c>
       <c r="E46" t="s">
         <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>627</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D47" s="1">
@@ -1490,6 +1552,9 @@
       </c>
       <c r="E47" t="s">
         <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1506,11 +1571,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>1050</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="1">
@@ -1519,8 +1584,11 @@
       <c r="E49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>1068</v>
       </c>
@@ -1534,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>1069</v>
       </c>
@@ -1548,11 +1616,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>1070</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D52" s="1">
@@ -1561,8 +1629,11 @@
       <c r="E52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>1075</v>
       </c>
@@ -1576,11 +1647,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>1076</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D54" s="1">
@@ -1590,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1077</v>
       </c>
@@ -1604,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -1618,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -1632,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -1646,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -1660,7 +1731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -1674,7 +1745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -1688,7 +1759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -1702,7 +1773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -1716,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1126</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55435764-5F9C-49FF-91C2-A7FB5B28D0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -416,11 +417,31 @@
       <t xml:space="preserve"> in (select product_id, min(year) from sales</t>
     </r>
   </si>
+  <si>
+    <t>GROUP BY seller_id
+HAVING SUM(price) &gt;= ALL
+(SELECT SUM(price) FROM Sales GROUP BY seller_id);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where= and not in </t>
+  </si>
+  <si>
+    <t>group by product_id
+HAVING SUM(CASE WHEN sale_date BETWEEN '2019-01-01' AND '2019-03-31' THEN 1 ELSE 0 END) &gt; 0
+AND SUM(CASE WHEN sale_date &lt; '2019-01-01' THEN 1
+WHEN sale_date &gt; '2019-03-31' THEN 1 ELSE 0 END) =0;</t>
+  </si>
+  <si>
+    <t>Window function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHERE  available_from &lt; ADDDATE("2019-06-23", INTERVAL -1 MONTH),    WHERE dispatch_date &gt; ADDDATE(DATE("2019-06-23"), INTERVAL -1 YEAR) </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -463,6 +484,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -476,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -488,6 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -767,22 +795,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="47.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -799,7 +827,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -813,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -827,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -844,7 +872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -858,7 +886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -875,7 +903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -889,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -906,7 +934,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -920,7 +948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -934,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -948,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -962,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -979,7 +1007,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -993,7 +1021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1007,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1021,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1035,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1055,7 +1083,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1075,7 +1103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1095,7 +1123,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1115,7 +1143,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1135,7 +1163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1152,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1169,7 +1197,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1189,7 +1217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1206,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1223,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1243,7 +1271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1260,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1277,7 +1305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1294,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1311,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1331,7 +1359,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1348,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1368,7 +1396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1385,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1402,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>2182020</v>
       </c>
@@ -1419,7 +1447,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B39">
         <v>612</v>
       </c>
@@ -1436,7 +1467,10 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B40">
         <v>613</v>
       </c>
@@ -1450,7 +1484,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B41">
         <v>614</v>
       </c>
@@ -1464,7 +1501,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B42">
         <v>615</v>
       </c>
@@ -1481,7 +1521,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B43">
         <v>618</v>
       </c>
@@ -1495,7 +1538,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B44">
         <v>619</v>
       </c>
@@ -1509,7 +1555,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B45">
         <v>620</v>
       </c>
@@ -1523,7 +1572,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B46">
         <v>626</v>
       </c>
@@ -1540,7 +1592,10 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B47">
         <v>627</v>
       </c>
@@ -1557,7 +1612,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B48">
         <v>1045</v>
       </c>
@@ -1571,7 +1629,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B49">
         <v>1050</v>
       </c>
@@ -1588,7 +1649,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B50">
         <v>1068</v>
       </c>
@@ -1602,7 +1666,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B51">
         <v>1069</v>
       </c>
@@ -1616,7 +1683,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B52">
         <v>1070</v>
       </c>
@@ -1633,7 +1703,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B53">
         <v>1075</v>
       </c>
@@ -1647,7 +1720,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B54">
         <v>1076</v>
       </c>
@@ -1661,7 +1737,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="7">
+        <v>2192020</v>
+      </c>
       <c r="B55">
         <v>1077</v>
       </c>
@@ -1675,11 +1754,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D56" s="1">
@@ -1688,12 +1767,15 @@
       <c r="E56" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="1">
@@ -1702,12 +1784,15 @@
       <c r="E57" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="1">
@@ -1716,12 +1801,15 @@
       <c r="E58" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D59" s="1">
@@ -1730,12 +1818,15 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D60" s="1">
@@ -1744,8 +1835,11 @@
       <c r="E60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -1759,7 +1853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -1773,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -1787,7 +1881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -1801,7 +1895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -1815,7 +1909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -1829,7 +1923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -1843,7 +1937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -1857,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -1871,7 +1965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -1885,7 +1979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -1899,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -1913,7 +2007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -1927,7 +2021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -1941,7 +2035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B75">
         <v>1174</v>
       </c>
@@ -1955,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -1969,7 +2063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -1983,7 +2077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -1997,7 +2091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B79">
         <v>1204</v>
       </c>
@@ -2011,7 +2105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2025,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2039,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2053,7 +2147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2067,7 +2161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2081,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2095,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2109,7 +2203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2123,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2137,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2151,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2165,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2179,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2193,7 +2287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2207,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2221,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2235,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2249,7 +2343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2263,7 +2357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55435764-5F9C-49FF-91C2-A7FB5B28D0F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -437,11 +436,20 @@
   <si>
     <t xml:space="preserve">WHERE  available_from &lt; ADDDATE("2019-06-23", INTERVAL -1 MONTH),    WHERE dispatch_date &gt; ADDDATE(DATE("2019-06-23"), INTERVAL -1 YEAR) </t>
   </si>
+  <si>
+    <t>with as cte1, cte2, union</t>
+  </si>
+  <si>
+    <t>case when  有时候可以用ifnull</t>
+  </si>
+  <si>
+    <t>window function + union</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -795,22 +803,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.73046875" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="6" width="47.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -827,7 +835,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>175</v>
       </c>
@@ -841,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>176</v>
       </c>
@@ -855,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>177</v>
       </c>
@@ -872,7 +880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>178</v>
       </c>
@@ -886,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>180</v>
       </c>
@@ -903,7 +911,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>181</v>
       </c>
@@ -917,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>182</v>
       </c>
@@ -934,7 +942,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>183</v>
       </c>
@@ -948,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>184</v>
       </c>
@@ -962,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>185</v>
       </c>
@@ -976,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>196</v>
       </c>
@@ -990,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1021,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1083,7 +1091,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1180,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1197,7 +1205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1217,7 +1225,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1251,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1288,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1305,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1339,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1376,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1413,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>2182020</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>2192020</v>
       </c>
@@ -1467,7 +1475,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>2192020</v>
       </c>
@@ -1484,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>2192020</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>2192020</v>
       </c>
@@ -1521,7 +1529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>2192020</v>
       </c>
@@ -1538,7 +1546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>2192020</v>
       </c>
@@ -1555,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>2192020</v>
       </c>
@@ -1572,7 +1580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>2192020</v>
       </c>
@@ -1592,7 +1600,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>2192020</v>
       </c>
@@ -1612,7 +1620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>2192020</v>
       </c>
@@ -1629,7 +1637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>2192020</v>
       </c>
@@ -1649,7 +1657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>2192020</v>
       </c>
@@ -1666,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>2192020</v>
       </c>
@@ -1683,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>2192020</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>2192020</v>
       </c>
@@ -1720,7 +1728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>2192020</v>
       </c>
@@ -1737,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>2192020</v>
       </c>
@@ -1754,7 +1762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -1771,7 +1779,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -1788,7 +1796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -1805,7 +1813,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -1822,7 +1830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -1853,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -1867,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -1881,11 +1889,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1126</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D64" s="1">
@@ -1895,11 +1903,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1127</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="1">
@@ -1908,12 +1916,15 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1132</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D66" s="1">
@@ -1923,7 +1934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -1937,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -1951,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -1965,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -1979,7 +1990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -1992,8 +2003,11 @@
       <c r="E71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2007,11 +2021,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1164</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D73" s="1">
@@ -2020,8 +2034,11 @@
       <c r="E73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F73" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2035,7 +2052,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2202020</v>
+      </c>
       <c r="B75">
         <v>1174</v>
       </c>
@@ -2049,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2063,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2077,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2091,7 +2111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>1204</v>
       </c>
@@ -2105,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2119,7 +2139,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2133,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2147,7 +2167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2161,7 +2181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2175,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2189,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2203,7 +2223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2217,7 +2237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2231,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2245,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2259,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2273,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2287,7 +2307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2301,7 +2321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2315,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2329,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2343,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2357,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1350</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6C8C6-D664-4FB6-8D97-90AB306C3148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -445,11 +446,17 @@
   <si>
     <t>window function + union</t>
   </si>
+  <si>
+    <t>window function that doesn't need partition by</t>
+  </si>
+  <si>
+    <t>union all</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,22 +810,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="47.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -835,7 +842,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -849,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -863,7 +870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -880,7 +887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -894,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -911,7 +918,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -925,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -942,7 +949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -956,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -970,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -984,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1015,7 +1022,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1029,7 +1036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1043,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1057,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1071,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1131,7 +1138,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1151,7 +1158,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1171,7 +1178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1205,7 +1212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1225,7 +1232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1242,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1259,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1296,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1313,7 +1320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1347,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1438,7 +1445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>2182020</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>2192020</v>
       </c>
@@ -1475,7 +1482,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>2192020</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>2192020</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>2192020</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>2192020</v>
       </c>
@@ -1546,7 +1553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>2192020</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>2192020</v>
       </c>
@@ -1580,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>2192020</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>2192020</v>
       </c>
@@ -1620,7 +1627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>2192020</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>2192020</v>
       </c>
@@ -1657,7 +1664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>2192020</v>
       </c>
@@ -1674,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>2192020</v>
       </c>
@@ -1691,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>2192020</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>2192020</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>2192020</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>2192020</v>
       </c>
@@ -1762,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -1779,7 +1786,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -1813,7 +1820,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -1830,7 +1837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -1861,7 +1868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -1875,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -1903,7 +1910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -1948,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -1962,7 +1969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -1976,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -1990,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2007,7 +2014,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2021,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2038,7 +2045,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2052,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2069,7 +2076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2111,7 +2118,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>2242020</v>
+      </c>
       <c r="B79">
         <v>1204</v>
       </c>
@@ -2124,12 +2134,15 @@
       <c r="E79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="1">
@@ -2138,8 +2151,11 @@
       <c r="E80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2153,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2167,11 +2183,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="1">
@@ -2181,7 +2197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2195,7 +2211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2209,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2223,7 +2239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2237,7 +2253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2251,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2265,7 +2281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2279,7 +2295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2293,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2307,7 +2323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2321,7 +2337,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2335,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2349,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2363,7 +2379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2377,7 +2393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE6C8C6-D664-4FB6-8D97-90AB306C3148}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD89BC1B-0683-4E98-986D-C303F2C5465F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="136">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>union all</t>
+  </si>
+  <si>
+    <t>Union</t>
+  </si>
+  <si>
+    <t>Several subquery</t>
   </si>
 </sst>
 </file>
@@ -814,7 +820,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2155,7 +2161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2211,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2225,11 +2231,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>87</v>
       </c>
       <c r="D86" s="1">
@@ -2238,12 +2244,15 @@
       <c r="E86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F86" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D87" s="1">
@@ -2252,8 +2261,11 @@
       <c r="E87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="F87" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2267,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2281,7 +2293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2295,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2309,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2323,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2337,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2351,7 +2363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2365,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD89BC1B-0683-4E98-986D-C303F2C5465F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -383,9 +382,6 @@
   </si>
   <si>
     <t>window function, lag, lead, ifnull</t>
-  </si>
-  <si>
-    <t>update table set columnname = if ()</t>
   </si>
   <si>
     <t>group by actor_id, director_id 
@@ -458,11 +454,100 @@
   <si>
     <t>Several subquery</t>
   </si>
+  <si>
+    <t>Write a SQL query to find the cancellation rate of requests made by unbanned users (both client and driver must be unbanned) between Oct 1, 2013 and Oct 3, 2013. The cancellation rate is computed by dividing the number of canceled (by client or driver) requests made by unbanned users by the total number of requests made by unbanned users.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that reports the fraction of players that logged in again on the day after the day they first logged in, rounded to 2 decimal places. In other words, you need to count the number of players that logged in for at least two consecutive days starting from their first login date, then divide that number by the total number of players.</t>
+  </si>
+  <si>
+    <t>Write a SQL query to find the median salary of each company. Bonus points if you can solve it without using any built-in SQL functions.</t>
+  </si>
+  <si>
+    <t>Given the Employee table, write a SQL query that finds out managers with at least 5 direct report. For the above table, your SQL query should return:</t>
+  </si>
+  <si>
+    <t>Write a query to find the median of all numbers and name the result as median</t>
+  </si>
+  <si>
+    <t>Write a sql to find the name of the winning candidate, the above example will return the winner</t>
+  </si>
+  <si>
+    <t>Write a SQL to get the cumulative sum of an employee's salary over a period of 3 months but exclude the most recent month.</t>
+  </si>
+  <si>
+    <t>Write a query to print the sum of all total investment values in 2016 (TIV_2016), to a scale of 2 decimal places, for all policy holders who meet the following criteria: 1. Have the same TIV_2015 value as one or more other policyholders. 2. Are not located in the same city as any other policyholder (i.e.: the (latitude, longitude) attribute pairs must be unique).</t>
+  </si>
+  <si>
+    <t>X city built a new stadium, each day many people visit it and the stats are saved as these columns: id, visit_date, people. Please write a query to display the records which have 3 or more consecutive rows and the amount of people more than 100(inclusive).</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Several friends at a cinema ticket office would like to reserve consecutive available seats. Can you help to query all the consecutive available seats order by the seat_id using the following cinema table?</t>
+  </si>
+  <si>
+    <t>Write a query to find the shortest distance between these points rounded to 2 decimals.</t>
+  </si>
+  <si>
+    <t>Given two tables as below, write a query to display the comparison result (higher/lower/same) of the average salary of employees in a department to the company's average salary.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update table </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> columnname = if ()</t>
+    </r>
+  </si>
+  <si>
+    <t>Write a SQL query for a report that provides the pairs (actor_id, director_id) where the actor have cooperated with the director at least 3 times.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that selects the product id, year, quantity, and price for the first year of every product sold.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that reports the best seller by total sales price, If there is a tie, report them all.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that reports the products that were only sold in spring 2019. That is, between 2019-01-01 and 2019-03-31 inclusive.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that reports for each install date, the number of players that installed the game on that day and the day 1 retention.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that reports the books that have sold less than 10 copies in the last year, excluding books that have been available for less than 1 month from today. Assume today is 2019-06-23.</t>
+  </si>
+  <si>
+    <t>Write an SQL query that reports the number of posts reported yesterday for each report reason. Assume today is 2019-07-05.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find all active businesses. An active business is a business that has more than one event type with occurences greater than the average occurences of that event type among all businesses.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,19 +609,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,22 +910,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.73046875" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="6" width="47.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="78.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -847,8 +942,11 @@
       <c r="E1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F1" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>175</v>
       </c>
@@ -862,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>176</v>
       </c>
@@ -876,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>177</v>
       </c>
@@ -889,11 +987,11 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>178</v>
       </c>
@@ -907,7 +1005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>180</v>
       </c>
@@ -920,11 +1018,11 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>181</v>
       </c>
@@ -938,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>182</v>
       </c>
@@ -951,11 +1049,11 @@
       <c r="E8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>183</v>
       </c>
@@ -969,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>184</v>
       </c>
@@ -983,7 +1081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>185</v>
       </c>
@@ -997,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>196</v>
       </c>
@@ -1011,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1024,11 +1122,11 @@
       <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1041,8 +1139,11 @@
       <c r="E14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F14" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1056,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1070,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1084,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1100,11 +1201,14 @@
       <c r="E18" t="s">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1120,11 +1224,14 @@
       <c r="E19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1140,11 +1247,14 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1160,11 +1270,14 @@
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1180,11 +1293,14 @@
       <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1201,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1218,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1234,11 +1350,14 @@
       <c r="E25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1255,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1272,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1288,11 +1407,14 @@
       <c r="E28" t="s">
         <v>4</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1309,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1326,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1343,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1360,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1376,11 +1498,14 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1397,7 +1522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1413,11 +1538,14 @@
       <c r="E35" t="s">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1434,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1451,25 +1579,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>2182020</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>610</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="7">
+      <c r="E38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
         <v>2192020</v>
       </c>
       <c r="B39">
@@ -1484,12 +1614,15 @@
       <c r="E39" t="s">
         <v>4</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
         <v>2192020</v>
       </c>
       <c r="B40">
@@ -1505,8 +1638,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
         <v>2192020</v>
       </c>
       <c r="B41">
@@ -1522,8 +1655,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="7">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>2192020</v>
       </c>
       <c r="B42">
@@ -1538,12 +1671,15 @@
       <c r="E42" t="s">
         <v>12</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
         <v>2192020</v>
       </c>
       <c r="B43">
@@ -1559,8 +1695,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
         <v>2192020</v>
       </c>
       <c r="B44">
@@ -1576,8 +1712,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
         <v>2192020</v>
       </c>
       <c r="B45">
@@ -1593,8 +1729,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
         <v>2192020</v>
       </c>
       <c r="B46">
@@ -1609,12 +1745,12 @@
       <c r="E46" t="s">
         <v>4</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
         <v>2192020</v>
       </c>
       <c r="B47">
@@ -1629,12 +1765,12 @@
       <c r="E47" t="s">
         <v>1</v>
       </c>
-      <c r="F47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="7">
+      <c r="G47" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>2192020</v>
       </c>
       <c r="B48">
@@ -1650,8 +1786,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="7">
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
         <v>2192020</v>
       </c>
       <c r="B49">
@@ -1666,12 +1802,15 @@
       <c r="E49" t="s">
         <v>1</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="7">
+      <c r="F49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
         <v>2192020</v>
       </c>
       <c r="B50">
@@ -1687,8 +1826,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
         <v>2192020</v>
       </c>
       <c r="B51">
@@ -1704,8 +1843,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="7">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
         <v>2192020</v>
       </c>
       <c r="B52">
@@ -1720,12 +1859,15 @@
       <c r="E52" t="s">
         <v>4</v>
       </c>
-      <c r="F52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="7">
+      <c r="F52" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
         <v>2192020</v>
       </c>
       <c r="B53">
@@ -1741,8 +1883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
         <v>2192020</v>
       </c>
       <c r="B54">
@@ -1758,8 +1900,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>2192020</v>
       </c>
       <c r="B55">
@@ -1775,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -1788,11 +1930,14 @@
       <c r="E56" t="s">
         <v>1</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F56" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -1805,11 +1950,11 @@
       <c r="E57" t="s">
         <v>1</v>
       </c>
-      <c r="F57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="G57" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -1822,11 +1967,14 @@
       <c r="E58" t="s">
         <v>1</v>
       </c>
-      <c r="F58" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -1839,11 +1987,14 @@
       <c r="E59" t="s">
         <v>12</v>
       </c>
-      <c r="F59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F59" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -1856,11 +2007,14 @@
       <c r="E60" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F60" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -1874,7 +2028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -1888,11 +2042,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1113</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
@@ -1901,8 +2055,11 @@
       <c r="E63" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F63" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -1915,8 +2072,11 @@
       <c r="E64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F64" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -1929,11 +2089,11 @@
       <c r="E65" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G65" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -1947,7 +2107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -1961,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -1975,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -1989,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -2003,7 +2163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2016,11 +2176,11 @@
       <c r="E71" t="s">
         <v>4</v>
       </c>
-      <c r="F71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G71" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2034,7 +2194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2047,11 +2207,11 @@
       <c r="E73" t="s">
         <v>4</v>
       </c>
-      <c r="F73" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G73" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2065,7 +2225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2082,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2096,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2110,7 +2270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2124,7 +2284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -2140,11 +2300,11 @@
       <c r="E79" t="s">
         <v>4</v>
       </c>
-      <c r="F79" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G79" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2157,11 +2317,11 @@
       <c r="E80" t="s">
         <v>4</v>
       </c>
-      <c r="F80" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G80" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2175,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2189,7 +2349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2203,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2217,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2231,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2244,11 +2404,11 @@
       <c r="E86" t="s">
         <v>4</v>
       </c>
-      <c r="F86" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G86" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2261,11 +2421,11 @@
       <c r="E87" t="s">
         <v>4</v>
       </c>
-      <c r="F87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="G87" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2279,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2293,7 +2453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2307,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2321,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2335,7 +2495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2349,7 +2509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2363,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2377,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2391,7 +2551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2405,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1350</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E19D0F-30FD-42FA-BC93-561B34344DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -543,11 +544,41 @@
   <si>
     <t>Write an SQL query to find all active businesses. An active business is a business that has more than one event type with occurences greater than the average occurences of that event type among all businesses.</t>
   </si>
+  <si>
+    <t>Write an SQL query to find the average for daily percentage of posts that got removed after being reported as spam, rounded to 2 decimal places.</t>
+  </si>
+  <si>
+    <t>sum(case when r.remove_date is null then 0 else 1 end )/count(cte1.action_date)</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the prices of all products on 2019-08-16. Assume the price of all products before any change is 10</t>
+  </si>
+  <si>
+    <t>Since some IDs have been removed from Logs. Write an SQL query to find the start and end number of continuous ranges in table Logs.</t>
+  </si>
+  <si>
+    <t>Window function, with cet1, row_number() over w</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the type of weather in each country for November 2019. The type of weather is Cold if the average weather_state is less than or equal 15, Hot if the average weather_state is greater than or equal 25 and Warm otherwise.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the team size of each of the employees.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the total score for each gender at each day. Order the result table by gender and day</t>
+  </si>
+  <si>
+    <t>window function (partition by gender order by day)</t>
+  </si>
+  <si>
+    <t>Write an SQL query to compute moving average of how much customer paid in a 7 days window (current day + 6 days before) .</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -910,23 +941,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="44.86328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -946,7 +977,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -960,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -974,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -991,7 +1022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -1005,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -1022,7 +1053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -1036,7 +1067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -1053,7 +1084,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -1067,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -1081,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -1095,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -1109,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1126,7 +1157,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1143,7 +1174,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1157,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1171,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1185,7 +1216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1208,7 +1239,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1231,7 +1262,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1254,7 +1285,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1277,7 +1308,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1300,7 +1331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1317,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1334,7 +1365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1357,7 +1388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1374,7 +1405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1391,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1414,7 +1445,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1431,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1448,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1465,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1482,7 +1513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1505,7 +1536,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1522,7 +1553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1545,7 +1576,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1562,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1579,7 +1610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -1598,7 +1629,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -1621,7 +1652,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -1638,7 +1669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -1655,7 +1686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -1678,7 +1709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -1695,7 +1726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -1712,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -1729,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -1749,7 +1780,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -1769,7 +1800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -1786,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -1809,7 +1840,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -1826,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -1843,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -1866,7 +1897,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -1883,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -1900,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -1917,7 +1948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -1937,7 +1968,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -1954,7 +1985,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -1974,7 +2005,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -1994,7 +2025,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -2014,7 +2045,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -2028,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -2042,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -2059,7 +2090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -2076,7 +2107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -2093,7 +2124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -2106,8 +2137,14 @@
       <c r="E66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -2121,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -2135,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -2149,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -2163,7 +2200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2180,7 +2217,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2194,7 +2231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2207,11 +2244,14 @@
       <c r="E73" t="s">
         <v>4</v>
       </c>
+      <c r="F73" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="G73" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2225,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2242,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2256,7 +2296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2270,7 +2310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2284,14 +2324,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2242020</v>
       </c>
       <c r="B79">
         <v>1204</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D79" s="1">
@@ -2304,7 +2344,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2321,7 +2361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2335,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2349,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2363,7 +2403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2377,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2391,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2408,7 +2448,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2425,7 +2465,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2439,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2452,8 +2492,14 @@
       <c r="E89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2466,8 +2512,11 @@
       <c r="E90" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2480,8 +2529,11 @@
       <c r="E91" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2494,8 +2546,14 @@
       <c r="E92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2508,8 +2566,11 @@
       <c r="E93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2523,7 +2584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2537,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2551,7 +2612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2565,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E19D0F-30FD-42FA-BC93-561B34344DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5D69B-F4DD-46DA-B0E4-81DBC5066136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -302,12 +302,6 @@
   </si>
   <si>
     <t>Running Total for Different Genders    </t>
-  </si>
-  <si>
-    <t>Restaurant Growth    New</t>
-  </si>
-  <si>
-    <t>Ads Performance    New</t>
   </si>
   <si>
     <t>Index</t>
@@ -573,6 +567,24 @@
   </si>
   <si>
     <t>Write an SQL query to compute moving average of how much customer paid in a 7 days window (current day + 6 days before) .</t>
+  </si>
+  <si>
+    <t>Restaurant Growth    </t>
+  </si>
+  <si>
+    <t>Ads Performance    </t>
+  </si>
+  <si>
+    <t>Activity Participants</t>
+  </si>
+  <si>
+    <t>Number of Trusted Contacts of a Customer</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the names of all the activities with neither maximum, nor minimum number of participants. Return the result table in any order. Each activity in table Activities is performed by any person in the table Friends.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the following for each invoice_id: customer_name: The name of the customer the invoice is related to. price: The price of the invoice. contacts_cnt: The number of contacts related to the customer. trusted_contacts_cnt: The number of contacts related to the customer and at the same time they are customers to the shop. (i.e His/Her email exists in the Customers table.)</t>
   </si>
 </sst>
 </file>
@@ -942,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -959,22 +971,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1019,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1050,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -1081,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1154,10 +1166,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1171,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -1216,7 +1228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1233,13 +1245,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1256,13 +1268,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1279,10 +1291,10 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
@@ -1302,13 +1314,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1325,10 +1337,10 @@
         <v>4</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
@@ -1365,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1382,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
@@ -1422,7 +1434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1439,10 +1451,10 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1513,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1530,10 +1542,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
@@ -1553,7 +1565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1570,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
@@ -1629,7 +1641,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -1646,10 +1658,10 @@
         <v>4</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
@@ -1686,7 +1698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -1703,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
@@ -1777,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
@@ -1797,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.45">
@@ -1817,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -1834,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.45">
@@ -1874,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -1891,10 +1903,10 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.45">
@@ -1962,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -1982,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
@@ -1999,13 +2011,13 @@
         <v>1</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -2019,13 +2031,13 @@
         <v>12</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -2039,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.45">
@@ -2073,7 +2085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -2087,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.45">
@@ -2121,10 +2133,10 @@
         <v>12</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -2138,10 +2150,10 @@
         <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.45">
@@ -2214,7 +2226,7 @@
         <v>4</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.45">
@@ -2231,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2245,10 +2257,10 @@
         <v>4</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
@@ -2341,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.45">
@@ -2358,7 +2370,7 @@
         <v>4</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.45">
@@ -2445,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.45">
@@ -2462,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.45">
@@ -2493,10 +2505,10 @@
         <v>4</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
@@ -2513,7 +2525,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
@@ -2530,7 +2542,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -2547,10 +2559,10 @@
         <v>4</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
@@ -2558,7 +2570,7 @@
         <v>1321</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>165</v>
       </c>
       <c r="D93" s="1">
         <v>0.65500000000000003</v>
@@ -2567,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.45">
@@ -2575,7 +2587,7 @@
         <v>1322</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="D94" s="1">
         <v>0.58599999999999997</v>
@@ -2589,7 +2601,7 @@
         <v>1327</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D95" s="1">
         <v>0.71799999999999997</v>
@@ -2603,7 +2615,7 @@
         <v>1336</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D96" s="1">
         <v>0.46300000000000002</v>
@@ -2612,12 +2624,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
       <c r="C97" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D97" s="1">
         <v>0.51800000000000002</v>
@@ -2626,18 +2638,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" s="1">
         <v>0.92400000000000004</v>
       </c>
       <c r="E98" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B99">
+        <v>1355</v>
+      </c>
+      <c r="C99" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" ht="114" x14ac:dyDescent="0.45">
+      <c r="B100">
+        <v>1364</v>
+      </c>
+      <c r="C100" t="s">
+        <v>168</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D5D69B-F4DD-46DA-B0E4-81DBC5066136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA01FE6-415B-4C5B-86D1-E50BD8C0D376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="173">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>Write an SQL query to find the following for each invoice_id: customer_name: The name of the customer the invoice is related to. price: The price of the invoice. contacts_cnt: The number of contacts related to the customer. trusted_contacts_cnt: The number of contacts related to the customer and at the same time they are customers to the shop. (i.e His/Her email exists in the Customers table.)</t>
+  </si>
+  <si>
+    <t>Get the Second Most Recent Activity</t>
+  </si>
+  <si>
+    <t>Write an SQL query to show the second most recent activity of each user. If the user only has one activity, return that one.  A user can't perform more than one activity at the same time. Return the result table in any order.</t>
   </si>
 </sst>
 </file>
@@ -652,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -674,6 +680,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -954,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2686,6 +2693,23 @@
         <v>170</v>
       </c>
     </row>
+    <row r="101" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B101">
+        <v>1369</v>
+      </c>
+      <c r="C101" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="11">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA01FE6-415B-4C5B-86D1-E50BD8C0D376}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -590,13 +589,45 @@
     <t>Get the Second Most Recent Activity</t>
   </si>
   <si>
-    <t>Write an SQL query to show the second most recent activity of each user. If the user only has one activity, return that one.  A user can't perform more than one activity at the same time. Return the result table in any order.</t>
+    <r>
+      <t>Write an SQL query to show the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">second most recent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>activity of each user. If the user only has one activity, return that one.  A user can't perform more than one activity at the same time. Return the result table in any order.</t>
+    </r>
+  </si>
+  <si>
+    <t>window function, row_num()</t>
+  </si>
+  <si>
+    <t>Write an SQL query to show the unique ID of each user, If a user doesn't have a unique ID replace just show null. Return the result table in any order.</t>
+  </si>
+  <si>
+    <t>Replace Employee ID With The Unique Identifier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -960,23 +991,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="6" width="44.86328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -996,7 +1027,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>175</v>
       </c>
@@ -1010,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>176</v>
       </c>
@@ -1024,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>177</v>
       </c>
@@ -1041,7 +1072,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>178</v>
       </c>
@@ -1055,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>180</v>
       </c>
@@ -1072,7 +1103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>181</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>182</v>
       </c>
@@ -1103,7 +1134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>183</v>
       </c>
@@ -1117,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>184</v>
       </c>
@@ -1131,7 +1162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>185</v>
       </c>
@@ -1145,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>196</v>
       </c>
@@ -1159,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1176,7 +1207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1193,7 +1224,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1207,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1221,7 +1252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1235,7 +1266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1258,7 +1289,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1281,7 +1312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1304,7 +1335,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1327,7 +1358,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1350,7 +1381,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1367,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1384,7 +1415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1407,7 +1438,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1424,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1441,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1464,7 +1495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1481,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1498,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1515,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1532,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1555,7 +1586,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1572,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1595,7 +1626,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1612,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1629,7 +1660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -1648,7 +1679,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -1671,7 +1702,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -1688,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -1705,7 +1736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -1728,7 +1759,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -1745,7 +1776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -1762,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -1779,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -1799,7 +1830,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -1819,7 +1850,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -1836,7 +1867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -1859,7 +1890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -1876,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -1893,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -1916,7 +1947,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -1933,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -1950,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -1967,7 +1998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -1987,7 +2018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -2004,7 +2035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -2024,7 +2055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -2044,7 +2075,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -2064,7 +2095,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -2078,7 +2109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -2092,7 +2123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -2109,7 +2140,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -2126,7 +2157,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -2143,7 +2174,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -2163,7 +2194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -2177,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -2191,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -2205,7 +2236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -2219,7 +2250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2236,7 +2267,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2250,7 +2281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2270,7 +2301,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2284,7 +2315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2301,7 +2332,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2315,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2329,7 +2360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2343,7 +2374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -2363,7 +2394,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2380,7 +2411,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2394,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2408,7 +2439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2422,7 +2453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2436,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2450,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2467,7 +2498,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2484,7 +2515,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2498,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2518,7 +2549,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2535,7 +2566,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2552,7 +2583,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2572,7 +2603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2589,7 +2620,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2603,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2617,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2631,7 +2662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2645,7 +2676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -2659,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -2676,7 +2707,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -2693,7 +2724,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -2708,6 +2739,23 @@
       </c>
       <c r="F101" s="5" t="s">
         <v>172</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>1378</v>
+      </c>
+      <c r="C102" t="s">
+        <v>175</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE0F48F-FDD1-4F87-8852-20163EA225BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="187">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -623,12 +624,126 @@
   <si>
     <t>Replace Employee ID With The Unique Identifier</t>
   </si>
+  <si>
+    <t>A company is running Ads and wants to calculate the performance of each Ad.Performance of the Ad is measured using Click-Through Rate (CTR) where...Write an SQL query to find the ctr of each Ad. Round ctr to 2 decimal points. Order the result table by ctr in descending order and by ad_id in ascending order in case of a tie.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IFNULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ROUND(100*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(action='Clicked') / (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(action='Clicked')+SUM(action='Viewed')),2),0.00 )AS ctr</t>
+    </r>
+  </si>
+  <si>
+    <t>Write an SQL query to get the names of products with greater than or equal to 100 units ordered in February 2020 and their amount.Return result table in any order.</t>
+  </si>
+  <si>
+    <t>month(order_date) = 2 and year(order_date) = 2020; order_date BETWEEN '2020-02-01' AND '2020-02-29'</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find how many users visited the bank and didn't do any transactions, how many visited the bank and did one transaction and so on.</t>
+  </si>
+  <si>
+    <t>Write the following SQL query: Find the name of the user who has rated the greatest number of the movies.In case of a tie, return lexicographically smaller user name.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the id and the name of all students who are enrolled in departments that no longer exists.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the percentage of immediate orders in the table, rounded to 2 decimal places.</t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the percentage of immediate orders in the first orders of all customers, rounded to 2 decimal places.</t>
+  </si>
+  <si>
+    <t>SUM(CASE WHEN month = 'Jan' THEN revenue END)  条件判断，如果非， 则自动为null</t>
+  </si>
+  <si>
+    <r>
+      <t>round(sum(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ifnull(order_date = customer_pref_delivery_date,0)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/count(*)*100, 2)  用ifnull进行条件判断，是时自动为1， 非时设为0。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +761,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -991,23 +1113,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="44.86328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1027,7 +1149,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -1041,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -1055,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -1072,7 +1194,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -1086,7 +1208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -1103,7 +1225,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -1117,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -1134,7 +1256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -1148,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -1162,7 +1284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -1176,7 +1298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -1190,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1207,7 +1329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1224,7 +1346,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1238,7 +1360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1252,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1266,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1289,7 +1411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1312,7 +1434,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1335,7 +1457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1358,7 +1480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1381,7 +1503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1398,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1415,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1438,7 +1560,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1455,7 +1577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1472,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1495,7 +1617,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1512,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1529,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1546,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1563,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1586,7 +1708,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1603,7 +1725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1626,7 +1748,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1643,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1660,7 +1782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -1679,7 +1801,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -1702,7 +1824,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -1719,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -1736,7 +1858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -1759,7 +1881,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -1776,7 +1898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -1793,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -1810,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -1830,7 +1952,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -1850,7 +1972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -1867,7 +1989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -1890,7 +2012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -1907,7 +2029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -1924,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -1947,7 +2069,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -1964,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -1981,7 +2103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -1998,7 +2120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -2018,7 +2140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -2035,7 +2157,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -2055,7 +2177,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -2075,7 +2197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -2095,7 +2217,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -2109,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -2123,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -2140,7 +2262,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -2157,7 +2279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -2174,7 +2296,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -2194,7 +2316,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -2208,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -2222,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -2236,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -2250,7 +2372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2267,7 +2389,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2281,7 +2403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2301,7 +2423,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2314,8 +2436,14 @@
       <c r="E74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2331,8 +2459,11 @@
       <c r="E75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2345,8 +2476,11 @@
       <c r="E76" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2360,7 +2494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2374,7 +2508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -2394,7 +2528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2411,7 +2545,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2425,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2439,7 +2573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2453,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2467,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2481,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2498,7 +2632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2515,7 +2649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2529,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2549,7 +2683,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2566,7 +2700,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2583,7 +2717,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2603,7 +2737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2620,7 +2754,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2633,8 +2767,14 @@
       <c r="E94" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2647,8 +2787,14 @@
       <c r="E95" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F95" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2661,8 +2807,11 @@
       <c r="E96" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F96" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2675,8 +2824,11 @@
       <c r="E97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -2689,8 +2841,11 @@
       <c r="E98" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="F98" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -2707,7 +2862,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -2724,7 +2879,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -2744,7 +2899,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>1378</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE0F48F-FDD1-4F87-8852-20163EA225BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4D997-53C2-49C7-AC77-C630F97525C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -737,6 +737,12 @@
       </rPr>
       <t>)/count(*)*100, 2)  用ifnull进行条件判断，是时自动为1， 非时设为0。</t>
     </r>
+  </si>
+  <si>
+    <t>Write an SQL query to reformat the table such that there is a department id column and a revenue column for each month.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write an SQL query to find for each month and country, the number of transactions and their total amount, the number of approved transactions and their total amount. </t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C70" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2463,7 +2469,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2476,11 +2482,14 @@
       <c r="E76" t="s">
         <v>1</v>
       </c>
+      <c r="F76" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="G76" s="5" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2492,6 +2501,9 @@
       </c>
       <c r="E77" t="s">
         <v>4</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D4D997-53C2-49C7-AC77-C630F97525C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBCB237-0E5A-40C0-BE35-652E8B749726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="191">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -742,14 +742,114 @@
     <t>Write an SQL query to reformat the table such that there is a department id column and a revenue column for each month.</t>
   </si>
   <si>
-    <t xml:space="preserve">Write an SQL query to find for each month and country, the number of transactions and their total amount, the number of approved transactions and their total amount. </t>
+    <r>
+      <t>Write an SQL query to find for</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> each month and country</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, the number of transactions and their total amount, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the number of approved transactions and their total amount.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">group by </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">country, left(trans_date,7). OR use "date_format" e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">select </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date_format(trans_date, '%Y-%m')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_tr</t>
+    </r>
+  </si>
+  <si>
+    <t>The winner in each group is the player who scored the maximum total points within the group. In the case of a tie, the lowest player_id wins. Write an SQL query to find the winner in each group.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +874,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1122,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2505,8 +2627,11 @@
       <c r="F77" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G77" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2518,6 +2643,9 @@
       </c>
       <c r="E78" t="s">
         <v>12</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.45">

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBCB237-0E5A-40C0-BE35-652E8B749726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -438,9 +438,6 @@
     <t>window function + union</t>
   </si>
   <si>
-    <t>window function that doesn't need partition by</t>
-  </si>
-  <si>
     <t>union all</t>
   </si>
   <si>
@@ -472,9 +469,6 @@
   </si>
   <si>
     <t>Write a query to print the sum of all total investment values in 2016 (TIV_2016), to a scale of 2 decimal places, for all policy holders who meet the following criteria: 1. Have the same TIV_2015 value as one or more other policyholders. 2. Are not located in the same city as any other policyholder (i.e.: the (latitude, longitude) attribute pairs must be unique).</t>
-  </si>
-  <si>
-    <t>X city built a new stadium, each day many people visit it and the stats are saved as these columns: id, visit_date, people. Please write a query to display the records which have 3 or more consecutive rows and the amount of people more than 100(inclusive).</t>
   </si>
   <si>
     <t>Description</t>
@@ -844,11 +838,81 @@
   <si>
     <t>The winner in each group is the player who scored the maximum total points within the group. In the case of a tie, the lowest player_id wins. Write an SQL query to find the winner in each group.</t>
   </si>
+  <si>
+    <t>The maximum weight the elevator can hold is 1000. Write an SQL query to find the person_name of the last person who will fit in the elevator without exceeding the weight limit. It is guaranteed that the person who is first in the queue can fit in the elevator.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum(weight) over (order by turn) as total_weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Note that this window function that doesn't need partition by</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Leetcode </t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Write a query to find the overall acceptance rate of requests rounded to 2 decimals, which is the number of acceptance divide the number of requests.</t>
+  </si>
+  <si>
+    <r>
+      <t>Write a query to find the overall acceptance rate of requests rounded to 2 decimals, which is the number of acceptance divide the number of requests.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Follow-up:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. Can you write a query to return the accept rate but for every month?
+2. How about the cumulative accept rate for every day?</t>
+    </r>
+  </si>
+  <si>
+    <t>select round(coalesce(1.0* (select count(distinct requester_id, accepter_id) from request_accepted)/
+(select count(distinct sender_id, send_to_id) from friend_request), 0.0),2) as accept_rate;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1241,23 +1305,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="6" width="44.86328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1274,10 +1338,10 @@
         <v>97</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>175</v>
       </c>
@@ -1291,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>176</v>
       </c>
@@ -1305,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>177</v>
       </c>
@@ -1322,7 +1386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>178</v>
       </c>
@@ -1336,7 +1400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>180</v>
       </c>
@@ -1353,7 +1417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>181</v>
       </c>
@@ -1367,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>182</v>
       </c>
@@ -1384,7 +1448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>183</v>
       </c>
@@ -1398,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>184</v>
       </c>
@@ -1412,7 +1476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>185</v>
       </c>
@@ -1426,7 +1490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>196</v>
       </c>
@@ -1440,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1457,7 +1521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1471,10 +1535,10 @@
         <v>12</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1488,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1502,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1516,7 +1580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1533,13 +1597,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1556,13 +1620,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1579,13 +1643,13 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1602,13 +1666,13 @@
         <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1625,13 +1689,13 @@
         <v>4</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1648,7 +1712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1665,7 +1729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1682,13 +1746,13 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1705,7 +1769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1722,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1739,13 +1803,13 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1762,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1779,7 +1843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1796,7 +1860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1812,8 +1876,14 @@
       <c r="E32" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="F32" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1829,14 +1899,11 @@
       <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="G33" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1853,7 +1920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1870,13 +1937,13 @@
         <v>1</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1893,7 +1960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1910,7 +1977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -1929,7 +1996,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -1946,13 +2013,13 @@
         <v>4</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -1969,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -1986,7 +2053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -2003,13 +2070,13 @@
         <v>12</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -2026,7 +2093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -2043,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -2060,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -2080,7 +2147,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -2097,10 +2164,10 @@
         <v>1</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -2117,7 +2184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -2134,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -2157,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -2174,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -2191,13 +2258,13 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -2214,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -2231,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -2248,7 +2315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -2262,13 +2329,13 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -2285,7 +2352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -2299,13 +2366,13 @@
         <v>1</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -2319,13 +2386,13 @@
         <v>12</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -2339,13 +2406,13 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -2359,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -2373,7 +2440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -2387,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -2404,10 +2471,10 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -2424,7 +2491,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -2438,13 +2505,13 @@
         <v>4</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -2458,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -2472,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -2486,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -2500,7 +2567,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2517,7 +2584,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2531,7 +2598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2545,13 +2612,13 @@
         <v>4</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2565,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2588,10 +2655,10 @@
         <v>4</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2605,13 +2672,13 @@
         <v>1</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2625,13 +2692,13 @@
         <v>4</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2645,10 +2712,10 @@
         <v>12</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -2664,11 +2731,14 @@
       <c r="E79" t="s">
         <v>4</v>
       </c>
+      <c r="F79" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="G79" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2682,10 +2752,10 @@
         <v>4</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2699,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2713,7 +2783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2727,7 +2797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2741,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2755,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2769,10 +2839,10 @@
         <v>4</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2786,10 +2856,10 @@
         <v>4</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2803,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2817,13 +2887,13 @@
         <v>4</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="90" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2837,10 +2907,10 @@
         <v>1</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2854,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2871,18 +2941,18 @@
         <v>4</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>1321</v>
       </c>
       <c r="C93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D93" s="1">
         <v>0.65500000000000003</v>
@@ -2891,15 +2961,15 @@
         <v>4</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="105" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>1322</v>
       </c>
       <c r="C94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D94" s="1">
         <v>0.58599999999999997</v>
@@ -2908,13 +2978,13 @@
         <v>1</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2928,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -2948,10 +3018,10 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -2965,10 +3035,10 @@
         <v>4</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -2982,15 +3052,15 @@
         <v>1</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>1355</v>
       </c>
       <c r="C99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D99" s="1">
         <v>0.621</v>
@@ -2999,15 +3069,15 @@
         <v>4</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="135" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>1364</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D100" s="1">
         <v>0.72599999999999998</v>
@@ -3016,15 +3086,15 @@
         <v>4</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>1369</v>
       </c>
       <c r="C101" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D101" s="11">
         <v>0.51100000000000001</v>
@@ -3033,28 +3103,65 @@
         <v>12</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>1378</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E102" t="s">
         <v>1</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2">
+        <v>597</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDA07F-FAE4-4CA0-B137-4BFB5ECAAB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="18000" windowHeight="10995"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="223">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -619,9 +620,6 @@
     <t>Replace Employee ID With The Unique Identifier</t>
   </si>
   <si>
-    <t>A company is running Ads and wants to calculate the performance of each Ad.Performance of the Ad is measured using Click-Through Rate (CTR) where...Write an SQL query to find the ctr of each Ad. Round ctr to 2 decimal points. Order the result table by ctr in descending order and by ad_id in ascending order in case of a tie.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -907,13 +905,1350 @@
   <si>
     <t>select round(coalesce(1.0* (select count(distinct requester_id, accepter_id) from request_accepted)/
 (select count(distinct sender_id, send_to_id) from friend_request), 0.0),2) as accept_rate;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A company is running Ads and wants to calculate the performance of each Ad.Performance of the Ad is measured using Click-Through Rate (CTR) whereCTR  = # of click/(#of click + # of view). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Write an SQL query to find the ctr of each Ad. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Round ctr to 2 decimal points. Order the result table by ctr in descending order and by ad_id in ascending order in case of a tie.</t>
+    </r>
+  </si>
+  <si>
+    <t>DATE_SUB(CURDATE(), INTERVAL 1 DAY);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">表示过去七天： date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>between</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>date_add</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curdate(),INTERVAL -7 DAY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>curdate()</t>
+    </r>
+  </si>
+  <si>
+    <t>DATEDIFF( date1, date2 )
+ The calculation is date1 - date2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select …....from ad4ad t1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ad4ad t2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t1.user_id = t2.user_id 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t1.unit_id = t2.unit_id 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t1.ad_event = 'impression'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t2.ad_event = 'create_ad'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t1.dates &lt; t2.dates
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t1.user_id, t1.unit_id;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>算distribution： select content_type, count(content_type)/(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select count(*) from stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) as cnt
+from stories
+group by content_type;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我先问了个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clarification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的问题，是不是希望</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result有两个column，一个是date一个是人数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，小哥说是的
+然后提醒我要先</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>define dau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，除了题目中说到的session大于5秒，还有什么criteria是我觉得dau应该满足的？
+我说应该session不只要5秒，而且要有scroll down或者first click才算，因为只打开一个session然后time out或者就quit的话不应该算，然后send message表示至少有一个click，所以send message的session肯定都有first click，所以最后还是选择scroll down和first click的
+小哥说好，make sense，那你开始写吧.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>先写个subquery选出userid， sessionid和date是first click和scroll down的，然后join到第二个table上选sessiontime大于5秒的，最后count distinct userid， group by date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>就好了</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">count(cus_id) over (order by ds </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range between interval '7' day preceding and current row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <t>Write a SQL query to find employees who have the highest salary in each of the departments. For the above tables, your SQL query should return the following rows (order of rows does not matter</t>
+  </si>
+  <si>
+    <t>COUNT(expr) doesn’t count NULL values。 COUNT(IF(DAYOFWEEK(trav_date)=7,1,NULL)) AS 'Saturday trips',</t>
+  </si>
+  <si>
+    <t>Aggregate functions such as MIN() and MAX() cannot be used in WHERE clauses, which require expressions that apply to individual rows.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adding NULL to any other value would produce a NULL result.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Aggregate functions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WILL IGNORE NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. But, SUM(), AVG(), MIN(), and MAX() </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return NULL when there are no values to summarize.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> If you don’t want an aggregate value of NULL to display as NULL, use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IFNULL()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to map it appropriately. Count(expr) ignore NULL, but count() includes null.  SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNT(*) - COUNT(score) AS missing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> FROM expt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAVING.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.. to calculate group summaries but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display results only for groups that match certain criteria.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HAVING is
+analogous to WHERE, but it applies to group characteristics rather than to single rows. SELECT COUNT(*) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AS count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, name FROM driver_log
+GROUP BY name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HAVING count &gt; 3;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>categorize groups on a logarithmic scale: SELECT FLOOR(LOG10(pop)) AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log10(population)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+-&gt; COUNT(*) AS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> `number of states`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-&gt; FROM states </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`log10(population)`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">;  Note that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aliases in the preceding queries are written using backticks (identifier quoting)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rather than single quotes (string quoting). Quoted aliases in the
+GROUP BY clause must use identifier quoting or the alias is treated as a constant string
+expression and the grouping produces the wrong result.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LIMIT….</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> You want to compute per-group summary values but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>display only the smallest or largest of them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Date-Based Summaries: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GROUP BY DATE(col_name)
+GROUP BY FROM_DAYS(TO_DAYS(col_name))
+GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YEAR(col_name), MONTH(col_name)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, DAYOFMONTH(col_name)
+GROUP BY </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATE_FORMAT(col_name,'%Y-%m-%e')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Different level summary: define variables: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SELECT @total := SUM(miles) AS 'total miles' FROM driver_log; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then use the variable in the later queries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">display different summary-level values (and not perform calculations involving one summary level against another): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>add WITH ROLLUP to the GROUP BY clause:</t>
+    </r>
+  </si>
+  <si>
+    <t>STDDEV_SAMP(score) AS 'std. dev.',
+VAR_SAMP(score) AS 'variance'</t>
+  </si>
+  <si>
+    <t>count missing values: SUM(ISNULL(score)) AS 'n (missing)' method2: COUNT(*) - COUNT(score) AS 'n (missing)',</t>
+  </si>
+  <si>
+    <r>
+      <t>The clause</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LIMIT n-1, 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns 1 row starting at the row n .For 37 (odd) ranked values, the median: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT score FROM testscore ORDER BY score LIMIT 18,1;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For 38 (even) ranked values: the two middle values for median:  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SELECT score FROM testscore ORDER BY score LIMIT 18,2;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculating Successive-Row Differences: Use a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">self-join </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">that matches pairs of adjacent rows and calculates the differences between members of each pair. E.g SELECT t1.seq AS seq1, t2.seq AS seq2,
+t1.city AS city1, t2.city AS city2,
+t1.miles AS miles1, t2.miles AS miles2,
+t2.miles-t1.miles AS dist
+FROM trip_log AS t1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> trip_log AS t2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ON t1.seq+1 = t2.seq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ORDER BY t1.seq;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT t1.stage, t1.km, t1.t,
+SUM(t2.km) AS 'cum. km',
+SEC_TO_TIME(SUM(TIME_TO_SEC(t2.t))) AS 'cum. t',
+SUM(t2.km)/(SUM(TIME_TO_SEC(t2.t))/(60*60)) AS 'avg. km/hour'
+FROM marathon AS t1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> INNER JOIN marathon AS t2
+ON t1.stage &gt;= t2.stage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+GROUP BY t1.stage;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ISNULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(IncidentState,City)。 Replace the null value in 'IncidentState' column with the value from 'City' column</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">multiple left join: 之前Join 所得到的column可作为和之后的table join 的关键词： SELECT *
+FROM renting as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN customers c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- Augment table renting with information about customers 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on r.customer_id = c.customer_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="3" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LEFT JOIN actsin ai</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  -- Augment the table renting with the table actsin
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on r.movie_id = ai.movie_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">LEFT JOIN actors a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -- Augment table renting with information about actors
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>on ai.actor_id = a.actor_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>什么时候可以不用Partitioned By 和 Order By，分别的影响是？ 没有 partitioned by 整个table都会被当作同一个window. select *, avg(age) over() from student; 这时的avg就是整个table 的avg。每行显示的都是同一个数。没有 Order By
+在我们做 sum， avg， max， min 的时候一般都不加order by 除非是为了做rolling sum，rolling avg, rolling max, rolling min。加上了order by XXX，如果每行的XXX不同，则对应的aggregate输出的结果就不同了。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>做runing total 可以没有partition by 但是要有order by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+order by需要的是对应排序的比如 row_number, rank, dense_rank, lag, lead 如果他们没有order by会怎么样呢？
+这个时候会有保持原有排序对table进行处理。rank, dense_rank 只会出现1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>加减时间： DATE_ADD(CURDATE(),</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INTERVAL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 DAY);</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +2299,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1003,7 +2360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1026,6 +2383,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1305,23 +2671,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.86328125" customWidth="1"/>
+    <col min="4" max="4" width="16.73046875" customWidth="1"/>
+    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="6" max="6" width="44.86328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -1341,7 +2707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -1355,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -1369,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -1386,7 +2752,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -1400,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -1417,7 +2783,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -1431,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -1448,7 +2814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -1462,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -1475,8 +2841,11 @@
       <c r="E10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -1490,7 +2859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -1504,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -1521,7 +2890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -1538,7 +2907,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -1552,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -1566,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -1580,7 +2949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -1603,7 +2972,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -1626,7 +2995,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -1649,7 +3018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -1672,7 +3041,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -1695,7 +3064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -1712,7 +3081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -1729,7 +3098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -1752,7 +3121,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -1769,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -1786,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -1809,7 +3178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -1826,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -1843,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -1860,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -1877,13 +3246,13 @@
         <v>1</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -1903,7 +3272,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -1920,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -1943,7 +3312,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -1960,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -1977,7 +3346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -1996,7 +3365,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -2019,7 +3388,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -2036,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -2053,7 +3422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -2076,7 +3445,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -2093,7 +3462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -2110,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -2127,7 +3496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -2147,7 +3516,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -2167,7 +3536,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -2184,7 +3553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -2207,7 +3576,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -2224,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -2241,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -2264,7 +3633,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -2281,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -2298,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -2315,7 +3684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -2335,7 +3704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -2352,7 +3721,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -2372,7 +3741,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -2392,7 +3761,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -2412,7 +3781,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -2426,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -2440,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -2457,7 +3826,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -2474,7 +3843,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -2491,7 +3860,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -2511,7 +3880,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -2525,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -2539,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -2553,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -2567,7 +3936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -2584,7 +3953,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -2598,7 +3967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -2618,7 +3987,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -2632,13 +4001,13 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -2655,10 +4024,10 @@
         <v>4</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -2672,13 +4041,13 @@
         <v>1</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -2692,13 +4061,13 @@
         <v>4</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="G77" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -2712,10 +4081,10 @@
         <v>12</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -2732,13 +4101,13 @@
         <v>4</v>
       </c>
       <c r="F79" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G79" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -2755,7 +4124,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -2769,7 +4138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -2783,7 +4152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -2797,7 +4166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -2811,7 +4180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -2825,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -2842,7 +4211,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -2859,7 +4228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -2873,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -2893,7 +4262,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -2910,7 +4279,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -2927,7 +4296,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -2947,7 +4316,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -2964,7 +4333,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -2978,13 +4347,13 @@
         <v>1</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G94" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -2998,13 +4367,13 @@
         <v>1</v>
       </c>
       <c r="F95" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="G95" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -3018,10 +4387,10 @@
         <v>12</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -3035,10 +4404,10 @@
         <v>4</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -3052,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -3072,7 +4441,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -3089,7 +4458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -3109,7 +4478,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>1378</v>
       </c>
@@ -3130,38 +4499,161 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="58.73046875" customWidth="1"/>
+    <col min="6" max="6" width="47.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>192</v>
-      </c>
-      <c r="B1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>193</v>
       </c>
       <c r="B2">
         <v>597</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F3" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F4" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+      <c r="F5" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F6" s="12" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+      <c r="F7" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="F8" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="F9" s="12" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F10" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F11" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+      <c r="F12" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="F13" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F14" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="F15" s="12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="270.75" x14ac:dyDescent="0.45">
+      <c r="F16" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F18" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F19" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="F20" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F21" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="F22" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" ht="114" x14ac:dyDescent="0.45">
+      <c r="F23" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F24" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F25" s="14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDA07F-FAE4-4CA0-B137-4BFB5ECAAB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8486AD6-5F92-4B7E-BFA1-4959FD5FC14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="231">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2241,6 +2241,91 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 DAY);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提取时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EXTRACT(WEEK FROM "2017-06-15");</t>
+    </r>
+  </si>
+  <si>
+    <t>String aggregate: STRING_AGG(title,',')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update table: Update tablename SET columnname = </t>
+  </si>
+  <si>
+    <t>LIKE%A%</t>
+  </si>
+  <si>
+    <t>If you have a group by, then the window function using aggregate should be "SUM OF SUM", i.e. SUM(SUM(gold)) OVER (….....)</t>
+  </si>
+  <si>
+    <t>Total Sales Amount by Year</t>
+  </si>
+  <si>
+    <t>Write an SQL query to report the Total sales amount of each item for each year, with corresponding product name, product_id, product_name and report_year. Dates of the sales years are between 2018 to 2020. Return the result table ordered by product_id and report_year.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> UNION ALL;     average_daily_sales</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> * (DATEDIFF(LEAST(period_end, '2020-12-31'), GREATEST(period_start, '2020-01-01'))+1);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DATEPART(year, period_start);   DATEDIFF(@d2,@d1) AS 'd2 - d1';</t>
     </r>
   </si>
 </sst>
@@ -2672,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C102" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4492,6 +4577,26 @@
         <v>172</v>
       </c>
     </row>
+    <row r="103" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="B103">
+        <v>1384</v>
+      </c>
+      <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4500,10 +4605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4652,6 +4757,31 @@
         <v>222</v>
       </c>
     </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F26" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F27" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F28" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F29" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="F30" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8486AD6-5F92-4B7E-BFA1-4959FD5FC14D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3097CB40-9B3F-4C46-BF38-57BC85107EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="239">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2328,12 +2328,225 @@
       <t xml:space="preserve"> DATEPART(year, period_start);   DATEDIFF(@d2,@d1) AS 'd2 - d1';</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM_UNIXTIME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(unix_timestamp, '%Y-%m-%d %H:%i:%s')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNIX_TIMESTAMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STR_TO_DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('Apr 15 2012 12:00AM', '%M %d %Y %h:%i%p'))</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FULL-OUTER-JOIN </t>
+  </si>
+  <si>
+    <t>Median calculation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: get the rank_asc and rank_desc; Step 2: rank_asc between rank_desc -1 AND rank_desc + 1. EXAMPLE CODE:--&gt; STEP1:  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ROW_NUMBER () OVER (ORDER BY transaction_amount ASC) AS RANK_ASC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>COUNT(*) OVER() - ROW_NUMBER() OVER(ORDER BY transaction_amount ASC) + 1 as RANK_DESC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  ---&gt; STEP 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AVG(CASE WHEN RANK_ASC BETWEEN RANK_DESC -1 AND RANK_DESC+1 THEN transaction_amount  ELSE NULL END) AS median_amount</t>
+    </r>
+  </si>
+  <si>
+    <t>Write an SQL query to report the Capital gain/loss for each stock. The capital gain/loss of a stock is total gain or loss after buying and selling the stock one or many times.</t>
+  </si>
+  <si>
+    <t>Capital Gain/Loss</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT * FROM t1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LEFT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t2 ON t1.id = t2.id  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT * FROM t1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RIGHT JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> t2 ON t1.id = t2.id</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2406,6 +2619,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2445,7 +2683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2477,6 +2715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2757,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C102" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4597,6 +4836,20 @@
         <v>230</v>
       </c>
     </row>
+    <row r="104" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="B104">
+        <v>1393</v>
+      </c>
+      <c r="C104" t="s">
+        <v>237</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4605,20 +4858,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="58.73046875" customWidth="1"/>
-    <col min="6" max="6" width="47.59765625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="22.06640625" customWidth="1"/>
+    <col min="6" max="6" width="55.86328125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="171" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -4656,7 +4911,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F5" s="5" t="s">
         <v>207</v>
       </c>
@@ -4707,17 +4962,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="F15" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="270.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="F16" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F18" s="13" t="s">
         <v>205</v>
       </c>
@@ -4777,9 +5032,35 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F30" s="5" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F31" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F32" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E33" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="114" x14ac:dyDescent="0.45">
+      <c r="E35" t="s">
+        <v>234</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3097CB40-9B3F-4C46-BF38-57BC85107EC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB1847-5FAD-4AB7-9D63-9F1090BA83C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="241">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2539,6 +2539,66 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> t2 ON t1.id = t2.id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DATEDIFF(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SECOND</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, t2.event_time, t1.event_time)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATEDIFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in terms of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seconds</t>
     </r>
   </si>
 </sst>
@@ -4858,10 +4918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5063,6 +5123,14 @@
         <v>235</v>
       </c>
     </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="E36" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FB1847-5FAD-4AB7-9D63-9F1090BA83C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3984528-DEAE-4F0D-B944-E9A38EF08BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="253">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2600,6 +2600,42 @@
       </rPr>
       <t xml:space="preserve"> seconds</t>
     </r>
+  </si>
+  <si>
+    <t>YEAR() Year of date</t>
+  </si>
+  <si>
+    <t>MONTH() Month number (1..12)</t>
+  </si>
+  <si>
+    <t>MONTHNAME() Month name (January..December)</t>
+  </si>
+  <si>
+    <t>DAYOFMONTH() Day of month (1..31)</t>
+  </si>
+  <si>
+    <t>DAYNAME() Day name (Sunday..Saturday)</t>
+  </si>
+  <si>
+    <t>DAYOFWEEK() Day of week (1..7 for Sunday..Saturday)</t>
+  </si>
+  <si>
+    <t>WEEKDAY() Day of week (0..6 for Monday..Sunday)</t>
+  </si>
+  <si>
+    <t>DAYOFYEAR() Day of year (1..366)</t>
+  </si>
+  <si>
+    <t>HOUR() Hour of time (0..23)</t>
+  </si>
+  <si>
+    <t>MINUTE() Minute of time (0..59)</t>
+  </si>
+  <si>
+    <t>SECOND() Second of time (0..59)</t>
+  </si>
+  <si>
+    <t>EXTRACT() Varies</t>
   </si>
 </sst>
 </file>
@@ -4918,10 +4954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5131,6 +5167,66 @@
         <v>239</v>
       </c>
     </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F37" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F38" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F39" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F40" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F41" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F42" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F43" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F44" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F45" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F46" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F47" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
+      <c r="F48" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3984528-DEAE-4F0D-B944-E9A38EF08BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C15FF6-61C0-4DC1-9362-B66027AB7B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="258">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2636,6 +2636,24 @@
   </si>
   <si>
     <t>EXTRACT() Varies</t>
+  </si>
+  <si>
+    <t>Customers Who Bought Products A and B but Not C</t>
+  </si>
+  <si>
+    <t>Write an SQL query to report the customer_id and customer_name of customers who bought products "A", "B" but did not buy the product "C" since we want to recommend them buy this product. Return the result table ordered by customer_id.</t>
+  </si>
+  <si>
+    <t>group by customer_id
+having sum(case when product_name = 'A' then 1 else 0 end) &gt; 0
+and sum(case when product_name = 'B' then 1 else 0 end) &gt; 0
+and sum(case when product_name = 'C' then -1 else 0 end) &gt;= 0;</t>
+  </si>
+  <si>
+    <t>Write an SQL query to report the distance travelled by each user. Return the result table ordered by travelled_distance in descending order, if two or more users travelled the same distance, order them by their name in ascending order.</t>
+  </si>
+  <si>
+    <t>Top Travellers</t>
   </si>
 </sst>
 </file>
@@ -3092,10 +3110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4946,6 +4964,37 @@
         <v>236</v>
       </c>
     </row>
+    <row r="105" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="B105">
+        <v>1398</v>
+      </c>
+      <c r="C105" t="s">
+        <v>253</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B106">
+        <v>1407</v>
+      </c>
+      <c r="C106" t="s">
+        <v>257</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4956,7 +5005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" workbookViewId="0">
+    <sheetView topLeftCell="C34" workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C15FF6-61C0-4DC1-9362-B66027AB7B98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A459A58-D5D0-4440-A763-7AB69007C829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="4240" windowWidth="18000" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="260">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2655,12 +2655,18 @@
   <si>
     <t>Top Travellers</t>
   </si>
+  <si>
+    <t>Write an SQL query to report the students (student_id, student_name) being "quiet" in ALL exams.</t>
+  </si>
+  <si>
+    <t>Find the Quiet Students in All Exams</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3110,22 +3116,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G106"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="23.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.73046875" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
-    <col min="6" max="6" width="44.86328125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="47.59765625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="47.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="16">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3145,7 +3151,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="B2">
         <v>175</v>
       </c>
@@ -3159,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="B3">
         <v>176</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="32">
       <c r="B4">
         <v>177</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="B5">
         <v>178</v>
       </c>
@@ -3204,7 +3210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16">
       <c r="B6">
         <v>180</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="B7">
         <v>181</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16">
       <c r="B8">
         <v>182</v>
       </c>
@@ -3252,7 +3258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="B9">
         <v>183</v>
       </c>
@@ -3266,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="64">
       <c r="B10">
         <v>184</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="B11">
         <v>185</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="B12">
         <v>196</v>
       </c>
@@ -3311,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="32">
       <c r="B13">
         <v>197</v>
       </c>
@@ -3328,7 +3334,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="112">
       <c r="B14">
         <v>262</v>
       </c>
@@ -3345,7 +3351,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="B15">
         <v>511</v>
       </c>
@@ -3359,7 +3365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7">
       <c r="B16">
         <v>512</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7">
       <c r="B17">
         <v>534</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="112">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -3410,7 +3416,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="48">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="48">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="38">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -3479,7 +3485,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="32">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="48">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -3559,7 +3565,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -3576,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="112">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="96">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="16">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -3727,7 +3733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="64">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -3767,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -3784,7 +3790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -3803,7 +3809,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="32">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -3843,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -3860,7 +3866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="64">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -3883,7 +3889,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="16">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -3954,7 +3960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="16">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -3974,7 +3980,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -3991,7 +3997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="48">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -4014,7 +4020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -4031,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -4048,7 +4054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="48">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="48">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -4159,7 +4165,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="80">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -4179,7 +4185,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="48">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="64">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -4233,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -4247,7 +4253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="48">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="64">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="16">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -4298,7 +4304,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="48">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -4374,7 +4380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="16">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -4391,7 +4397,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="48">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -4425,7 +4431,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="48">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="48">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -4465,7 +4471,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="48">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -4485,7 +4491,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="64">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -4505,7 +4511,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="64">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -4522,7 +4528,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="80">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="16">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -4562,7 +4568,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:7">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -4576,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -4604,7 +4610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -4618,7 +4624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" ht="16">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:7" ht="16">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:7">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -4680,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" ht="48">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:7" ht="80">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" ht="32">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:7" ht="32">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:7" ht="48">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -4771,7 +4777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" ht="112">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:7" ht="48">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -4811,7 +4817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:7" ht="48">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -4828,7 +4834,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:7" ht="48">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -4845,7 +4851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:7" ht="48">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -4862,7 +4868,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:7" ht="80">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -4879,7 +4885,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" ht="128">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:7" ht="80">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:7" ht="48">
       <c r="B102">
         <v>1378</v>
       </c>
@@ -4930,7 +4936,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:7" ht="96">
       <c r="B103">
         <v>1384</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:7" ht="48">
       <c r="B104">
         <v>1393</v>
       </c>
@@ -4964,7 +4970,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:7" ht="96">
       <c r="B105">
         <v>1398</v>
       </c>
@@ -4981,7 +4987,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:7" ht="80">
       <c r="B106">
         <v>1407</v>
       </c>
@@ -4993,6 +4999,20 @@
       </c>
       <c r="F106" s="5" t="s">
         <v>256</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107">
+        <v>1412</v>
+      </c>
+      <c r="C107" t="s">
+        <v>259</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5009,16 +5029,16 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="58.73046875" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="22.06640625" customWidth="1"/>
-    <col min="6" max="6" width="55.86328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="171" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="176">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -5029,7 +5049,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="42" customHeight="1">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -5043,12 +5063,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="32">
       <c r="F3" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="48">
       <c r="F4" s="12" t="s">
         <v>198</v>
       </c>
@@ -5056,143 +5076,143 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="96">
       <c r="F5" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="32">
       <c r="F6" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="96">
       <c r="F7" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="144">
       <c r="F8" s="12" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="80">
       <c r="F9" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="48">
       <c r="F10" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="48">
       <c r="F11" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="128">
       <c r="F12" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="64">
       <c r="F13" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="32">
       <c r="F14" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="240">
       <c r="F15" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="240">
       <c r="F16" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" ht="32">
       <c r="F18" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:6" ht="32">
       <c r="F19" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:6" ht="80">
       <c r="F20" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:6" ht="32">
       <c r="F21" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:6" ht="144">
       <c r="F22" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:6" ht="112">
       <c r="F23" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:6" ht="32">
       <c r="F24" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:6" ht="16">
       <c r="F25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:6" ht="16">
       <c r="F26" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:6" ht="16">
       <c r="F27" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:6" ht="16">
       <c r="F28" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:6" ht="16">
       <c r="F29" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:6" ht="32">
       <c r="F30" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:6" ht="16">
       <c r="F31" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:6" ht="32">
       <c r="F32" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:6" ht="80">
       <c r="E33" s="15" t="s">
         <v>233</v>
       </c>
@@ -5200,7 +5220,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:6" ht="128">
       <c r="E35" t="s">
         <v>234</v>
       </c>
@@ -5208,7 +5228,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:6" ht="16">
       <c r="E36" t="s">
         <v>240</v>
       </c>
@@ -5216,62 +5236,62 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:6" ht="16">
       <c r="F37" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:6" ht="16">
       <c r="F38" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:6" ht="16">
       <c r="F39" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:6" ht="16">
       <c r="F40" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:6" ht="16">
       <c r="F41" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:6" ht="16">
       <c r="F42" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:6" ht="16">
       <c r="F43" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:6" ht="16">
       <c r="F44" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:6" ht="16">
       <c r="F45" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:6" ht="16">
       <c r="F46" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:6" ht="16">
       <c r="F47" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:6" ht="16">
       <c r="F48" s="5" t="s">
         <v>252</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A459A58-D5D0-4440-A763-7AB69007C829}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FCF805-5B37-4863-A740-68A4184C3443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="4240" windowWidth="18000" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="263">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2661,12 +2661,21 @@
   <si>
     <t>Find the Quiet Students in All Exams</t>
   </si>
+  <si>
+    <t xml:space="preserve">window function: max(score), min(score), NOT IN </t>
+  </si>
+  <si>
+    <t>Write an SQL query to find the npv of all each query of queries table. Return the result table in any order.</t>
+  </si>
+  <si>
+    <t>NPV Queries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3116,22 +3125,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F111" sqref="F111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="44.796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3151,7 +3160,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -3196,7 +3205,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -3210,7 +3219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -3258,7 +3267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="64">
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -3317,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="112">
+    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -3393,7 +3402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="112">
+    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48">
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -3439,7 +3448,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="38">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -3508,7 +3517,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="48">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -3565,7 +3574,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -3582,7 +3591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="112">
+    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -3639,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -3656,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="96">
+    <row r="32" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -3696,7 +3705,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -3716,7 +3725,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="64">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -3756,7 +3765,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -3773,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -3790,7 +3799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -3809,7 +3818,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="32">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -3832,7 +3841,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -3849,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -3866,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="64">
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -3906,7 +3915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -3960,7 +3969,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -3980,7 +3989,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -3997,7 +4006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="48">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -4020,7 +4029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="48">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -4111,7 +4120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -4128,7 +4137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="48">
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -4148,7 +4157,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="80">
+    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -4185,7 +4194,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="48">
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="64">
+    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -4253,7 +4262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="48">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="64">
+    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -4287,7 +4296,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -4304,7 +4313,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="48">
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -4338,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -4352,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -4366,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="48">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -4431,7 +4440,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="48">
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -4451,7 +4460,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="48">
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="48">
+    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="64">
+    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -4511,7 +4520,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="64">
+    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -4528,7 +4537,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="80">
+    <row r="79" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -4568,7 +4577,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -4582,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -4610,7 +4619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -4624,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="16">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="16">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -4672,7 +4681,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="48">
+    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="80">
+    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -4723,7 +4732,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="32">
+    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="32">
+    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -4760,7 +4769,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="48">
+    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -4777,7 +4786,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="112">
+    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -4797,7 +4806,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="48">
+    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -4817,7 +4826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="48">
+    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -4834,7 +4843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="48">
+    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -4851,7 +4860,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="48">
+    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="80">
+    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -4885,7 +4894,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="128">
+    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="80">
+    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="48">
+    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>1378</v>
       </c>
@@ -4936,7 +4945,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="96">
+    <row r="103" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>1384</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="48">
+    <row r="104" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>1393</v>
       </c>
@@ -4970,7 +4979,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="96">
+    <row r="105" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>1398</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="80">
+    <row r="106" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>1407</v>
       </c>
@@ -5001,11 +5010,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>1412</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>259</v>
       </c>
       <c r="E107" t="s">
@@ -5013,6 +5022,23 @@
       </c>
       <c r="F107" s="5" t="s">
         <v>258</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B108">
+        <v>1421</v>
+      </c>
+      <c r="C108" t="s">
+        <v>262</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5029,16 +5055,16 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="55.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="176">
+    <row r="1" spans="1:7" ht="171" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -5049,7 +5075,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -5063,12 +5089,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F3" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48">
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F4" s="12" t="s">
         <v>198</v>
       </c>
@@ -5076,143 +5102,143 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="96">
+    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F5" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F6" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="96">
+    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F7" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="144">
+    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="F8" s="12" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="80">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="F9" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48">
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F10" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="48">
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F11" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="128">
+    <row r="12" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="F12" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="64">
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F13" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F14" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="240">
+    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="F15" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="240">
+    <row r="16" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="F16" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="32">
+    <row r="18" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F18" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="32">
+    <row r="19" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F19" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="80">
+    <row r="20" spans="6:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="F20" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="32">
+    <row r="21" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F21" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="144">
+    <row r="22" spans="6:6" ht="128.25" x14ac:dyDescent="0.45">
       <c r="F22" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="112">
+    <row r="23" spans="6:6" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F23" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="32">
+    <row r="24" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F24" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="6:6" ht="16">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="6:6" ht="16">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F26" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="16">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F27" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="16">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F28" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="6:6" ht="16">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F29" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="32">
+    <row r="30" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F30" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="16">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F31" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="32">
+    <row r="32" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F32" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="80">
+    <row r="33" spans="5:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="E33" s="15" t="s">
         <v>233</v>
       </c>
@@ -5220,7 +5246,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="128">
+    <row r="35" spans="5:6" ht="114" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>234</v>
       </c>
@@ -5228,7 +5254,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="16">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>240</v>
       </c>
@@ -5236,62 +5262,62 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="16">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F37" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="5:6" ht="16">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F38" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="5:6" ht="16">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F39" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="5:6" ht="16">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F40" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="16">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F41" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="5:6" ht="16">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F42" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="5:6" ht="16">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F43" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="5:6" ht="16">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F44" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="5:6" ht="16">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F45" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="5:6" ht="16">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F46" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="5:6" ht="16">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F47" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="5:6" ht="16">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F48" s="5" t="s">
         <v>252</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FCF805-5B37-4863-A740-68A4184C3443}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88A7C6-CA10-462D-8835-E9FF719BE3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="265">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2669,6 +2669,12 @@
   </si>
   <si>
     <t>NPV Queries</t>
+  </si>
+  <si>
+    <t>You want to know how long a user visits your application. You decided to create bins of "[0-5&gt;", "[5-10&gt;", "[10-15&gt;" and "15 minutes or more" and count the number of sessions on it. Write an SQL query to report the (bin, total) in any order.</t>
+  </si>
+  <si>
+    <t>Create a Session Bar Chart</t>
   </si>
 </sst>
 </file>
@@ -3125,10 +3131,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5039,6 +5045,20 @@
       </c>
       <c r="F108" s="5" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="B109">
+        <v>1435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C88A7C6-CA10-462D-8835-E9FF719BE3A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D653510-E001-7444-BC42-1FE62E503E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21100" yWindow="4660" windowWidth="18000" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="266">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2675,6 +2675,10 @@
   </si>
   <si>
     <t>Create a Session Bar Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write an SQL query to evaluate the boolean expressions in Expressions table. Return the result table in any order
+</t>
   </si>
 </sst>
 </file>
@@ -3131,22 +3135,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>175</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>176</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>177</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>178</v>
       </c>
@@ -3225,7 +3229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>180</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>181</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>182</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>183</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>184</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>185</v>
       </c>
@@ -3318,7 +3322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>196</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>197</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>262</v>
       </c>
@@ -3366,7 +3370,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>511</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>512</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>534</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -3431,7 +3435,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -3454,7 +3458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -3523,7 +3527,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -3540,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -3557,7 +3561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -3580,7 +3584,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -3597,7 +3601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -3614,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -3637,7 +3641,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -3654,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -3671,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -3711,7 +3715,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -3748,7 +3752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -3788,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -3824,7 +3828,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -3847,7 +3851,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -3921,7 +3925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -3938,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -3975,7 +3979,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -4012,7 +4016,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -4052,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -4092,7 +4096,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -4126,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -4143,7 +4147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -4180,7 +4184,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -4220,7 +4224,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -4254,7 +4258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -4381,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -4412,7 +4416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -4426,7 +4430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -4466,7 +4470,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -4486,7 +4490,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -4526,7 +4530,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -4583,7 +4587,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -4597,7 +4601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -4625,7 +4629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -4670,7 +4674,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -4701,7 +4705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -4738,7 +4742,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" ht="112" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -4812,7 +4816,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -4849,7 +4853,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -4866,7 +4870,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -4900,7 +4904,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" ht="128" x14ac:dyDescent="0.2">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B102">
         <v>1378</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B103">
         <v>1384</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B104">
         <v>1393</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:7" ht="96" x14ac:dyDescent="0.2">
       <c r="B105">
         <v>1398</v>
       </c>
@@ -5002,7 +5006,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B106">
         <v>1407</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B107">
         <v>1412</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B108">
         <v>1421</v>
       </c>
@@ -5047,7 +5051,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:7" ht="80" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>1435</v>
       </c>
@@ -5059,6 +5063,17 @@
       </c>
       <c r="F109" s="5" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>1440</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5075,16 +5090,16 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="55.796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="171" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -5109,12 +5124,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="F3" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="F4" s="12" t="s">
         <v>198</v>
       </c>
@@ -5122,143 +5137,143 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="F5" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="F6" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="F7" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="F8" s="12" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="F9" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="F10" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="F11" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="114" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="F12" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="F13" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="F14" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="F15" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="240" x14ac:dyDescent="0.2">
       <c r="F16" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F18" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F19" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:6" ht="80" x14ac:dyDescent="0.2">
       <c r="F20" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F21" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="6:6" ht="144" x14ac:dyDescent="0.2">
       <c r="F22" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:6" ht="112" x14ac:dyDescent="0.2">
       <c r="F23" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F24" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F26" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F27" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F28" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F29" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="6:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F30" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F31" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:6" ht="32" x14ac:dyDescent="0.2">
       <c r="F32" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="5:6" ht="80" x14ac:dyDescent="0.2">
       <c r="E33" s="15" t="s">
         <v>233</v>
       </c>
@@ -5266,7 +5281,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="35" spans="5:6" ht="128" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>234</v>
       </c>
@@ -5274,7 +5289,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
         <v>240</v>
       </c>
@@ -5282,62 +5297,62 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F37" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F38" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F39" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F40" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F41" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F42" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F43" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F44" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F45" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F46" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F47" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="5:6" ht="16" x14ac:dyDescent="0.2">
       <c r="F48" s="5" t="s">
         <v>252</v>
       </c>

--- a/database/summary.xlsx
+++ b/database/summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D653510-E001-7444-BC42-1FE62E503E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254A71FE-C4CF-4B7D-8788-31F12EB9053E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21100" yWindow="4660" windowWidth="18000" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="269">
   <si>
     <t>Combine Two Tables    </t>
   </si>
@@ -2679,6 +2679,16 @@
   <si>
     <t xml:space="preserve">Write an SQL query to evaluate the boolean expressions in Expressions table. Return the result table in any order
 </t>
+  </si>
+  <si>
+    <t>Write an SQL query to report the difference between number of apples and oranges sold each day.
+Return the result table ordered by sale_date in format ('YYYY-MM-DD').</t>
+  </si>
+  <si>
+    <t>Apples &amp; Oranges</t>
+  </si>
+  <si>
+    <t>Evaluate boolean expression</t>
   </si>
 </sst>
 </file>
@@ -3135,22 +3145,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="35.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="44.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="44.796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="47.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>115</v>
       </c>
@@ -3170,7 +3180,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>175</v>
       </c>
@@ -3184,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>176</v>
       </c>
@@ -3198,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>177</v>
       </c>
@@ -3215,7 +3225,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>178</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>180</v>
       </c>
@@ -3246,7 +3256,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>181</v>
       </c>
@@ -3260,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>182</v>
       </c>
@@ -3277,7 +3287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>183</v>
       </c>
@@ -3291,7 +3301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>184</v>
       </c>
@@ -3308,7 +3318,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>185</v>
       </c>
@@ -3322,7 +3332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>196</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>197</v>
       </c>
@@ -3353,7 +3363,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>262</v>
       </c>
@@ -3370,7 +3380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>511</v>
       </c>
@@ -3384,7 +3394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>512</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>534</v>
       </c>
@@ -3412,7 +3422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2182020</v>
       </c>
@@ -3435,7 +3445,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2182020</v>
       </c>
@@ -3458,7 +3468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2182020</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2182020</v>
       </c>
@@ -3504,7 +3514,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2182020</v>
       </c>
@@ -3527,7 +3537,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2182020</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2182020</v>
       </c>
@@ -3561,7 +3571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2182020</v>
       </c>
@@ -3584,7 +3594,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2182020</v>
       </c>
@@ -3601,7 +3611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2182020</v>
       </c>
@@ -3618,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2182020</v>
       </c>
@@ -3641,7 +3651,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2182020</v>
       </c>
@@ -3658,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2182020</v>
       </c>
@@ -3675,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>2182020</v>
       </c>
@@ -3692,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>2182020</v>
       </c>
@@ -3715,7 +3725,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2182020</v>
       </c>
@@ -3735,7 +3745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>2182020</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>2182020</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>2182020</v>
       </c>
@@ -3792,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>2182020</v>
       </c>
@@ -3809,7 +3819,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>2182020</v>
       </c>
@@ -3828,7 +3838,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A39" s="6">
         <v>2192020</v>
       </c>
@@ -3851,7 +3861,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="6">
         <v>2192020</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="6">
         <v>2192020</v>
       </c>
@@ -3885,7 +3895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A42" s="6">
         <v>2192020</v>
       </c>
@@ -3908,7 +3918,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="6">
         <v>2192020</v>
       </c>
@@ -3925,7 +3935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="6">
         <v>2192020</v>
       </c>
@@ -3942,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="6">
         <v>2192020</v>
       </c>
@@ -3959,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="6">
         <v>2192020</v>
       </c>
@@ -3979,7 +3989,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="6">
         <v>2192020</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="6">
         <v>2192020</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="6">
         <v>2192020</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="6">
         <v>2192020</v>
       </c>
@@ -4056,7 +4066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>2192020</v>
       </c>
@@ -4073,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="6">
         <v>2192020</v>
       </c>
@@ -4096,7 +4106,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="6">
         <v>2192020</v>
       </c>
@@ -4113,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="6">
         <v>2192020</v>
       </c>
@@ -4130,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="6">
         <v>2192020</v>
       </c>
@@ -4147,7 +4157,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B56">
         <v>1082</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57">
         <v>1083</v>
       </c>
@@ -4184,7 +4194,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B58">
         <v>1084</v>
       </c>
@@ -4204,7 +4214,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B59">
         <v>1097</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B60">
         <v>1098</v>
       </c>
@@ -4244,7 +4254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B61">
         <v>1107</v>
       </c>
@@ -4258,7 +4268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B62">
         <v>1112</v>
       </c>
@@ -4272,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B63">
         <v>1113</v>
       </c>
@@ -4289,7 +4299,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B64">
         <v>1126</v>
       </c>
@@ -4306,7 +4316,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B65">
         <v>1127</v>
       </c>
@@ -4323,7 +4333,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B66">
         <v>1132</v>
       </c>
@@ -4343,7 +4353,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B67">
         <v>1141</v>
       </c>
@@ -4357,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B68">
         <v>1142</v>
       </c>
@@ -4371,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B69">
         <v>1148</v>
       </c>
@@ -4385,7 +4395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B70">
         <v>1149</v>
       </c>
@@ -4399,7 +4409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B71">
         <v>1158</v>
       </c>
@@ -4416,7 +4426,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B72">
         <v>1159</v>
       </c>
@@ -4430,7 +4440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B73">
         <v>1164</v>
       </c>
@@ -4450,7 +4460,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B74">
         <v>1173</v>
       </c>
@@ -4470,7 +4480,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>2202020</v>
       </c>
@@ -4490,7 +4500,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B76">
         <v>1179</v>
       </c>
@@ -4510,7 +4520,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B77">
         <v>1193</v>
       </c>
@@ -4530,7 +4540,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B78">
         <v>1194</v>
       </c>
@@ -4547,7 +4557,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>2242020</v>
       </c>
@@ -4570,7 +4580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B80">
         <v>1205</v>
       </c>
@@ -4587,7 +4597,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B81">
         <v>1211</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B82">
         <v>1212</v>
       </c>
@@ -4615,7 +4625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B83">
         <v>1225</v>
       </c>
@@ -4629,7 +4639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B84">
         <v>1241</v>
       </c>
@@ -4643,7 +4653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B85">
         <v>1251</v>
       </c>
@@ -4657,7 +4667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B86">
         <v>1264</v>
       </c>
@@ -4674,7 +4684,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B87">
         <v>1270</v>
       </c>
@@ -4691,7 +4701,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B88">
         <v>1280</v>
       </c>
@@ -4705,7 +4715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B89">
         <v>1285</v>
       </c>
@@ -4725,7 +4735,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B90">
         <v>1294</v>
       </c>
@@ -4742,7 +4752,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B91">
         <v>1303</v>
       </c>
@@ -4759,7 +4769,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B92">
         <v>1308</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="93" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B93">
         <v>1321</v>
       </c>
@@ -4796,7 +4806,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="94" spans="2:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B94">
         <v>1322</v>
       </c>
@@ -4816,7 +4826,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="95" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B95">
         <v>1327</v>
       </c>
@@ -4836,7 +4846,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B96">
         <v>1336</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B97">
         <v>1341</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B98">
         <v>1350</v>
       </c>
@@ -4887,7 +4897,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B99">
         <v>1355</v>
       </c>
@@ -4904,7 +4914,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="2:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" ht="114" x14ac:dyDescent="0.45">
       <c r="B100">
         <v>1364</v>
       </c>
@@ -4921,7 +4931,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="101" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B101">
         <v>1369</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="102" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B102">
         <v>1378</v>
       </c>
@@ -4955,7 +4965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="2:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B103">
         <v>1384</v>
       </c>
@@ -4975,7 +4985,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="104" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B104">
         <v>1393</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="105" spans="2:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="B105">
         <v>1398</v>
       </c>
@@ -5006,7 +5016,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="106" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B106">
         <v>1407</v>
       </c>
@@ -5020,7 +5030,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="107" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B107">
         <v>1412</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B108">
         <v>1421</v>
       </c>
@@ -5051,7 +5061,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="109" spans="2:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B109">
         <v>1435</v>
       </c>
@@ -5065,15 +5075,32 @@
         <v>263</v>
       </c>
     </row>
-    <row r="110" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" ht="57" x14ac:dyDescent="0.45">
       <c r="B110">
         <v>1440</v>
       </c>
+      <c r="C110" t="s">
+        <v>268</v>
+      </c>
       <c r="E110" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" ht="57" x14ac:dyDescent="0.45">
+      <c r="B111">
+        <v>1445</v>
+      </c>
+      <c r="C111" t="s">
+        <v>267</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5090,16 +5117,16 @@
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="55.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="55.796875" style="5" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="171" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>191</v>
       </c>
@@ -5110,7 +5137,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -5124,12 +5151,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F3" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F4" s="12" t="s">
         <v>198</v>
       </c>
@@ -5137,143 +5164,143 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F5" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F6" s="12" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F7" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="F8" s="12" t="s">
         <v>209</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="F9" s="12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F10" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F11" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="114" x14ac:dyDescent="0.45">
       <c r="F12" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="F13" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F14" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="F15" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="240" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="213.75" x14ac:dyDescent="0.45">
       <c r="F16" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F18" s="13" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="F19" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="20" spans="6:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="F20" s="5" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F21" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="6:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:6" ht="128.25" x14ac:dyDescent="0.45">
       <c r="F22" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="6:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:6" ht="99.75" x14ac:dyDescent="0.45">
       <c r="F23" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F24" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F25" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F26" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F27" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F28" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F29" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F30" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="6:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F31" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="6:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F32" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="5:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:6" ht="71.25" x14ac:dyDescent="0.45">
       <c r="E33" s="15" t="s">
         <v>233</v>
       </c>
@@ -5281,7 +5308,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="35" spans="5:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:6" ht="114" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>234</v>
       </c>
@@ -5289,7 +5316,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="36" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>240</v>
       </c>
@@ -5297,62 +5324,62 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F37" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F38" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="39" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F39" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="40" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F40" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="41" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F41" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="42" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F42" s="5" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="43" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F43" s="5" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="44" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F44" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="45" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F45" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="46" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F46" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F47" s="5" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="5:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.45">
       <c r="F48" s="5" t="s">
         <v>252</v>
       </c>
